--- a/tests/30-03-22/x_axis/test1/17V_x_axis_test1.xlsx
+++ b/tests/30-03-22/x_axis/test1/17V_x_axis_test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leouh\Documents\Rb_Controller\tests\30-03-22\x_axis\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0140D-968E-40C4-B60D-48C54C330514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F57FA1-F19B-4F6D-8FEE-18A68F99B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{20F25B41-6015-4D75-A164-73D75821CAD0}"/>
   </bookViews>
@@ -136,7 +136,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>17V x-axis test with extra heaters</a:t>
+              <a:t>17V step z-axis (w/ extra heaters)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -177,15 +177,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>side</c:v>
+                  <c:v>mid</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -193,7 +193,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3276,3064 +3278,3064 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$B$1019</c15:sqref>
+                    <c15:sqref>Sheet1!$E$2:$E$1019</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$3:$B$1019</c:f>
+              <c:f>Sheet1!$E$3:$E$1019</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1017"/>
                 <c:pt idx="0">
-                  <c:v>60.99</c:v>
+                  <c:v>66.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.48</c:v>
+                  <c:v>66.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.68</c:v>
+                  <c:v>67.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.65</c:v>
+                  <c:v>68.430000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.67</c:v>
+                  <c:v>69.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.290000000000006</c:v>
+                  <c:v>69.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.17</c:v>
+                  <c:v>70.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.849999999999994</c:v>
+                  <c:v>71.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.52</c:v>
+                  <c:v>71.86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.08</c:v>
+                  <c:v>72.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.959999999999994</c:v>
+                  <c:v>73.22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69.61</c:v>
+                  <c:v>73.83</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.25</c:v>
+                  <c:v>74.37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.8</c:v>
+                  <c:v>74.88</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.540000000000006</c:v>
+                  <c:v>75.55</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.05</c:v>
+                  <c:v>76.040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.8</c:v>
+                  <c:v>76.739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>73.37</c:v>
+                  <c:v>77.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.040000000000006</c:v>
+                  <c:v>77.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74.63</c:v>
+                  <c:v>78.52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75.319999999999993</c:v>
+                  <c:v>79.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75.78</c:v>
+                  <c:v>79.569999999999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>76.45</c:v>
+                  <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>77.150000000000006</c:v>
+                  <c:v>80.84</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.67</c:v>
+                  <c:v>81.34</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>78.3</c:v>
+                  <c:v>81.94</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>78.84</c:v>
+                  <c:v>82.48</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>79.489999999999995</c:v>
+                  <c:v>83.04</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80.03</c:v>
+                  <c:v>83.55</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>80.599999999999994</c:v>
+                  <c:v>84.13</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>81.2</c:v>
+                  <c:v>84.7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>81.75</c:v>
+                  <c:v>85.22</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>82.32</c:v>
+                  <c:v>85.74</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>82.79</c:v>
+                  <c:v>86.18</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83.34</c:v>
+                  <c:v>86.76</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>83.98</c:v>
+                  <c:v>87.36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>84.43</c:v>
+                  <c:v>87.82</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>85</c:v>
+                  <c:v>88.35</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>85.52</c:v>
+                  <c:v>88.9</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>86.02</c:v>
+                  <c:v>89.38</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>86.56</c:v>
+                  <c:v>89.9</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87.12</c:v>
+                  <c:v>90.4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>87.62</c:v>
+                  <c:v>90.84</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88.07</c:v>
+                  <c:v>91.29</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>88.58</c:v>
+                  <c:v>91.8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>89.12</c:v>
+                  <c:v>92.32</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>89.57</c:v>
+                  <c:v>92.77</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>90.07</c:v>
+                  <c:v>93.23</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>90.51</c:v>
+                  <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>90.95</c:v>
+                  <c:v>94.2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>91.45</c:v>
+                  <c:v>94.67</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>91.9</c:v>
+                  <c:v>95.14</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>92.37</c:v>
+                  <c:v>95.62</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>92.85</c:v>
+                  <c:v>96.06</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>93.23</c:v>
+                  <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>93.7</c:v>
+                  <c:v>96.95</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>94.22</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>94.55</c:v>
+                  <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>95.09</c:v>
+                  <c:v>98.34</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>95.47</c:v>
+                  <c:v>98.76</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>95.9</c:v>
+                  <c:v>99.21</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>96.33</c:v>
+                  <c:v>99.65</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.94</c:v>
+                  <c:v>100.27</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>97.18</c:v>
+                  <c:v>100.49</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>97.62</c:v>
+                  <c:v>100.93</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>98.07</c:v>
+                  <c:v>101.39</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>98.53</c:v>
+                  <c:v>101.82</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>98.94</c:v>
+                  <c:v>102.27</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>99.4</c:v>
+                  <c:v>102.71</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>99.74</c:v>
+                  <c:v>103.07</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100.23</c:v>
+                  <c:v>103.54</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>100.57</c:v>
+                  <c:v>103.91</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>101.02</c:v>
+                  <c:v>104.36</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>101.31</c:v>
+                  <c:v>104.63</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>101.78</c:v>
+                  <c:v>105.14</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>102.17</c:v>
+                  <c:v>105.52</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>102.56</c:v>
+                  <c:v>105.88</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>102.93</c:v>
+                  <c:v>106.24</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>103.31</c:v>
+                  <c:v>106.64</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>103.76</c:v>
+                  <c:v>107.12</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>104.06</c:v>
+                  <c:v>107.42</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>104.44</c:v>
+                  <c:v>107.83</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>104.81</c:v>
+                  <c:v>108.21</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>105.08</c:v>
+                  <c:v>108.48</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>105.49</c:v>
+                  <c:v>108.94</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>105.83</c:v>
+                  <c:v>109.3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>106.18</c:v>
+                  <c:v>109.7</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>106.7</c:v>
+                  <c:v>110.23</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>106.9</c:v>
+                  <c:v>110.45</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>107.27</c:v>
+                  <c:v>110.82</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>107.82</c:v>
+                  <c:v>111.34</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>108.04</c:v>
+                  <c:v>111.61</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>108.4</c:v>
+                  <c:v>111.98</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>108.72</c:v>
+                  <c:v>112.35</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>109.11</c:v>
+                  <c:v>112.76</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>109.46</c:v>
+                  <c:v>113.15</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>109.77</c:v>
+                  <c:v>113.46</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>110.11</c:v>
+                  <c:v>113.81</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>110.66</c:v>
+                  <c:v>114.38</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>110.8</c:v>
+                  <c:v>114.53</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>111.05</c:v>
+                  <c:v>114.81</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>111.36</c:v>
+                  <c:v>115.14</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>111.7</c:v>
+                  <c:v>115.47</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>112.08</c:v>
+                  <c:v>115.86</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>112.45</c:v>
+                  <c:v>116.24</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>112.68</c:v>
+                  <c:v>116.48</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>113.02</c:v>
+                  <c:v>116.84</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>113.39</c:v>
+                  <c:v>117.3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>113.72</c:v>
+                  <c:v>117.64</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>113.94</c:v>
+                  <c:v>117.86</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>114.24</c:v>
+                  <c:v>118.22</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>114.6</c:v>
+                  <c:v>118.58</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>114.86</c:v>
+                  <c:v>118.85</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>115.16</c:v>
+                  <c:v>119.16</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>115.46</c:v>
+                  <c:v>119.46</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115.7</c:v>
+                  <c:v>119.72</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116.02</c:v>
+                  <c:v>120.09</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>116.28</c:v>
+                  <c:v>120.34</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>116.64</c:v>
+                  <c:v>120.78</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>116.97</c:v>
+                  <c:v>121.16</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>117.25</c:v>
+                  <c:v>121.45</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>117.58</c:v>
+                  <c:v>121.8</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>117.84</c:v>
+                  <c:v>122.06</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>118.13</c:v>
+                  <c:v>122.4</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>118.41</c:v>
+                  <c:v>122.7</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>118.63</c:v>
+                  <c:v>122.99</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>119</c:v>
+                  <c:v>123.35</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>119.19</c:v>
+                  <c:v>123.51</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>119.48</c:v>
+                  <c:v>123.83</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>119.82</c:v>
+                  <c:v>124.18</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>120.01</c:v>
+                  <c:v>124.42</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>120.32</c:v>
+                  <c:v>124.72</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>120.65</c:v>
+                  <c:v>125.06</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>120.95</c:v>
+                  <c:v>125.39</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>121.14</c:v>
+                  <c:v>125.59</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>121.49</c:v>
+                  <c:v>125.95</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>121.7</c:v>
+                  <c:v>126.18</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>121.88</c:v>
+                  <c:v>126.42</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>122.32</c:v>
+                  <c:v>126.82</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>122.55</c:v>
+                  <c:v>127.07</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>122.75</c:v>
+                  <c:v>127.3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>123.03</c:v>
+                  <c:v>127.62</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>123.36</c:v>
+                  <c:v>127.95</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>123.62</c:v>
+                  <c:v>128.25</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>123.88</c:v>
+                  <c:v>128.53</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>124.01</c:v>
+                  <c:v>128.71</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>124.3</c:v>
+                  <c:v>129.04</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>124.65</c:v>
+                  <c:v>129.38999999999999</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>124.78</c:v>
+                  <c:v>129.56</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>125.12</c:v>
+                  <c:v>129.88999999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>125.28</c:v>
+                  <c:v>130.1</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>125.58</c:v>
+                  <c:v>130.41</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>125.83</c:v>
+                  <c:v>130.69</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>126.07</c:v>
+                  <c:v>130.96</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>126.4</c:v>
+                  <c:v>131.32</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>126.45</c:v>
+                  <c:v>131.38</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>126.77</c:v>
+                  <c:v>131.74</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>127.05</c:v>
+                  <c:v>132.03</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>127.25</c:v>
+                  <c:v>132.25</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>127.48</c:v>
+                  <c:v>132.5</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>127.65</c:v>
+                  <c:v>132.68</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>128.02000000000001</c:v>
+                  <c:v>133.06</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>128.15</c:v>
+                  <c:v>133.22999999999999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>128.41999999999999</c:v>
+                  <c:v>133.5</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>128.69999999999999</c:v>
+                  <c:v>133.82</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>128.91999999999999</c:v>
+                  <c:v>134.07</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>129.13</c:v>
+                  <c:v>134.29</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>129.33000000000001</c:v>
+                  <c:v>134.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>129.44999999999999</c:v>
+                  <c:v>134.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>129.75</c:v>
+                  <c:v>135.02000000000001</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>129.97999999999999</c:v>
+                  <c:v>135.24</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>130.22999999999999</c:v>
+                  <c:v>135.53</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>130.44999999999999</c:v>
+                  <c:v>135.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>130.58000000000001</c:v>
+                  <c:v>135.94</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>130.86000000000001</c:v>
+                  <c:v>136.18</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>130.97999999999999</c:v>
+                  <c:v>136.32</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>131.27000000000001</c:v>
+                  <c:v>136.62</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>131.41999999999999</c:v>
+                  <c:v>136.78</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>131.66</c:v>
+                  <c:v>137.05000000000001</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>132.06</c:v>
+                  <c:v>137.47</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>132.09</c:v>
+                  <c:v>137.55000000000001</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>132.29</c:v>
+                  <c:v>137.78</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>132.44999999999999</c:v>
+                  <c:v>137.96</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>132.72999999999999</c:v>
+                  <c:v>138.25</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>132.94</c:v>
+                  <c:v>138.47999999999999</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>133.12</c:v>
+                  <c:v>138.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>133.27000000000001</c:v>
+                  <c:v>138.88999999999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>133.49</c:v>
+                  <c:v>139.13999999999999</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>133.68</c:v>
+                  <c:v>139.36000000000001</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>133.77000000000001</c:v>
+                  <c:v>139.51</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>134.02000000000001</c:v>
+                  <c:v>139.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>134.26</c:v>
+                  <c:v>140.03</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>134.47</c:v>
+                  <c:v>140.25</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>134.66</c:v>
+                  <c:v>140.47999999999999</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>134.79</c:v>
+                  <c:v>140.61000000000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>135.04</c:v>
+                  <c:v>140.91</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>135.30000000000001</c:v>
+                  <c:v>141.12</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>135.4</c:v>
+                  <c:v>141.29</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>135.59</c:v>
+                  <c:v>141.53</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>135.82</c:v>
+                  <c:v>141.76</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>135.96</c:v>
+                  <c:v>141.94</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>136.13999999999999</c:v>
+                  <c:v>142.16</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>136.26</c:v>
+                  <c:v>142.32</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>136.4</c:v>
+                  <c:v>142.49</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>136.66</c:v>
+                  <c:v>142.79</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>136.85</c:v>
+                  <c:v>142.99</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>137.06</c:v>
+                  <c:v>143.22999999999999</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>137.24</c:v>
+                  <c:v>143.41999999999999</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>137.34</c:v>
+                  <c:v>143.55000000000001</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>137.53</c:v>
+                  <c:v>143.78</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>137.76</c:v>
+                  <c:v>144.01</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>137.83000000000001</c:v>
+                  <c:v>144.12</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>138.03</c:v>
+                  <c:v>144.31</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>138.26</c:v>
+                  <c:v>144.57</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>138.41</c:v>
+                  <c:v>144.65</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>138.63999999999999</c:v>
+                  <c:v>144.91999999999999</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>138.79</c:v>
+                  <c:v>145.11000000000001</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>139.07</c:v>
+                  <c:v>145.41</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>139.15</c:v>
+                  <c:v>145.54</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>139.24</c:v>
+                  <c:v>145.72</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>139.47999999999999</c:v>
+                  <c:v>145.96</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>139.63999999999999</c:v>
+                  <c:v>146.16999999999999</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>139.78</c:v>
+                  <c:v>146.33000000000001</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>140.03</c:v>
+                  <c:v>146.63</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>140.19</c:v>
+                  <c:v>146.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>140.27000000000001</c:v>
+                  <c:v>146.91</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>140.5</c:v>
+                  <c:v>147.09</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>140.59</c:v>
+                  <c:v>147.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>140.79</c:v>
+                  <c:v>147.43</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>140.9</c:v>
+                  <c:v>147.55000000000001</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>141.05000000000001</c:v>
+                  <c:v>147.72</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>141.26</c:v>
+                  <c:v>147.97999999999999</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>141.38</c:v>
+                  <c:v>148.13999999999999</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>141.56</c:v>
+                  <c:v>148.33000000000001</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>141.71</c:v>
+                  <c:v>148.51</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>141.87</c:v>
+                  <c:v>148.69</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>142.02000000000001</c:v>
+                  <c:v>148.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>142.26</c:v>
+                  <c:v>149.13</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>142.34</c:v>
+                  <c:v>149.22999999999999</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>142.62</c:v>
+                  <c:v>149.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>142.65</c:v>
+                  <c:v>149.57</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>142.79</c:v>
+                  <c:v>149.72999999999999</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>142.96</c:v>
+                  <c:v>149.94</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>143.1</c:v>
+                  <c:v>150.09</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>143.22999999999999</c:v>
+                  <c:v>150.26</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>143.36000000000001</c:v>
+                  <c:v>150.4</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>143.44</c:v>
+                  <c:v>150.51</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>143.66</c:v>
+                  <c:v>150.75</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>143.79</c:v>
+                  <c:v>150.9</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>143.99</c:v>
+                  <c:v>151.13</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>144.18</c:v>
+                  <c:v>151.33000000000001</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>144.25</c:v>
+                  <c:v>151.44</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>144.49</c:v>
+                  <c:v>151.68</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>144.65</c:v>
+                  <c:v>151.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>144.62</c:v>
+                  <c:v>151.85</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>144.71</c:v>
+                  <c:v>151.93</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>144.91999999999999</c:v>
+                  <c:v>152.13</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>145.02000000000001</c:v>
+                  <c:v>152.22</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>145.26</c:v>
+                  <c:v>152.5</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>145.37</c:v>
+                  <c:v>152.59</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>145.52000000000001</c:v>
+                  <c:v>152.75</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>145.79</c:v>
+                  <c:v>153.1</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>145.88999999999999</c:v>
+                  <c:v>153.22999999999999</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>145.93</c:v>
+                  <c:v>153.29</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>145.97999999999999</c:v>
+                  <c:v>153.37</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>146.15</c:v>
+                  <c:v>153.55000000000001</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>146.29</c:v>
+                  <c:v>153.66</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>146.34</c:v>
+                  <c:v>153.74</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>146.66999999999999</c:v>
+                  <c:v>154.09</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>146.77000000000001</c:v>
+                  <c:v>154.22</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>146.75</c:v>
+                  <c:v>154.22</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>146.97</c:v>
+                  <c:v>154.47</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>147.05000000000001</c:v>
+                  <c:v>154.58000000000001</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>147.05000000000001</c:v>
+                  <c:v>154.58000000000001</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>147.31</c:v>
+                  <c:v>154.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>147.51</c:v>
+                  <c:v>155.1</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>147.58000000000001</c:v>
+                  <c:v>155.18</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>147.68</c:v>
+                  <c:v>155.31</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>147.87</c:v>
+                  <c:v>155.5</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>147.94999999999999</c:v>
+                  <c:v>155.59</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>148.06</c:v>
+                  <c:v>155.72</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>148.38999999999999</c:v>
+                  <c:v>156.07</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>148.56</c:v>
+                  <c:v>156.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>148.72</c:v>
+                  <c:v>156.47999999999999</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>148.52000000000001</c:v>
+                  <c:v>156.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>148.74</c:v>
+                  <c:v>156.53</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>148.88</c:v>
+                  <c:v>156.71</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>148.99</c:v>
+                  <c:v>156.84</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>149.06</c:v>
+                  <c:v>156.94</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>149.19999999999999</c:v>
+                  <c:v>157.08000000000001</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>149.28</c:v>
+                  <c:v>157.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>149.37</c:v>
+                  <c:v>157.31</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>149.49</c:v>
+                  <c:v>157.43</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>149.6</c:v>
+                  <c:v>157.56</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>149.76</c:v>
+                  <c:v>157.72999999999999</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>149.81</c:v>
+                  <c:v>157.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>149.97999999999999</c:v>
+                  <c:v>158.02000000000001</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>150.07</c:v>
+                  <c:v>158.13999999999999</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>150.19</c:v>
+                  <c:v>158.26</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>150.26</c:v>
+                  <c:v>158.36000000000001</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>150.47999999999999</c:v>
+                  <c:v>158.55000000000001</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>150.65</c:v>
+                  <c:v>158.76</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>150.65</c:v>
+                  <c:v>158.78</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>150.78</c:v>
+                  <c:v>158.94</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>150.91999999999999</c:v>
+                  <c:v>159.08000000000001</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>151</c:v>
+                  <c:v>159.18</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>151.09</c:v>
+                  <c:v>159.25</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>151.18</c:v>
+                  <c:v>159.37</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>151.34</c:v>
+                  <c:v>159.55000000000001</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>151.47</c:v>
+                  <c:v>159.69</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>151.51</c:v>
+                  <c:v>159.78</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>151.6</c:v>
+                  <c:v>159.9</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>151.75</c:v>
+                  <c:v>160.11000000000001</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>151.86000000000001</c:v>
+                  <c:v>160.25</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>151.93</c:v>
+                  <c:v>160.37</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>151.97999999999999</c:v>
+                  <c:v>160.46</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>151.9</c:v>
+                  <c:v>160.47</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>152.41999999999999</c:v>
+                  <c:v>161.03</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>152.21</c:v>
+                  <c:v>160.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>152.26</c:v>
+                  <c:v>160.94</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>152.28</c:v>
+                  <c:v>161.02000000000001</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>152.44999999999999</c:v>
+                  <c:v>161.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>152.51</c:v>
+                  <c:v>161.29</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>152.69999999999999</c:v>
+                  <c:v>161.44999999999999</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>152.71</c:v>
+                  <c:v>161.47</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>152.81</c:v>
+                  <c:v>161.6</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>152.91</c:v>
+                  <c:v>161.72</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>152.99</c:v>
+                  <c:v>161.84</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>153.16999999999999</c:v>
+                  <c:v>162.03</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>153.22</c:v>
+                  <c:v>162.08000000000001</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>153.24</c:v>
+                  <c:v>162.15</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>153.44</c:v>
+                  <c:v>162.36000000000001</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>153.57</c:v>
+                  <c:v>162.5</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>153.66</c:v>
+                  <c:v>162.61000000000001</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>153.72999999999999</c:v>
+                  <c:v>162.71</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>153.83000000000001</c:v>
+                  <c:v>162.82</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>153.86000000000001</c:v>
+                  <c:v>162.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>153.96</c:v>
+                  <c:v>162.99</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>154.06</c:v>
+                  <c:v>163.1</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>154.16</c:v>
+                  <c:v>163.19</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>154.28</c:v>
+                  <c:v>163.32</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>154.38999999999999</c:v>
+                  <c:v>163.47</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>154.47</c:v>
+                  <c:v>163.6</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>154.57</c:v>
+                  <c:v>163.75</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>154.69</c:v>
+                  <c:v>163.91</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>154.61000000000001</c:v>
+                  <c:v>163.86</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>154.72999999999999</c:v>
+                  <c:v>163.99</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>154.86000000000001</c:v>
+                  <c:v>164.12</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>155</c:v>
+                  <c:v>164.28</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>155.06</c:v>
+                  <c:v>164.36</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>155.11000000000001</c:v>
+                  <c:v>164.45</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>155.22999999999999</c:v>
+                  <c:v>164.56</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>155.22</c:v>
+                  <c:v>164.59</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>155.38999999999999</c:v>
+                  <c:v>164.75</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>155.41999999999999</c:v>
+                  <c:v>164.8</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>155.63999999999999</c:v>
+                  <c:v>165.05</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>155.6</c:v>
+                  <c:v>165.02</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>155.66</c:v>
+                  <c:v>165.1</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>155.72999999999999</c:v>
+                  <c:v>165.17</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>156.02000000000001</c:v>
+                  <c:v>165.44</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>156.03</c:v>
+                  <c:v>165.45</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>156.06</c:v>
+                  <c:v>165.53</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>156.19</c:v>
+                  <c:v>165.66</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>156.22</c:v>
+                  <c:v>165.68</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>156.31</c:v>
+                  <c:v>165.78</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>156.36000000000001</c:v>
+                  <c:v>165.85</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>156.4</c:v>
+                  <c:v>165.91</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>156.58000000000001</c:v>
+                  <c:v>166.08</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>156.65</c:v>
+                  <c:v>166.19</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>156.66999999999999</c:v>
+                  <c:v>166.23</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>156.82</c:v>
+                  <c:v>166.4</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>156.85</c:v>
+                  <c:v>166.45</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>157</c:v>
+                  <c:v>166.62</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>157.03</c:v>
+                  <c:v>166.66</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>157.16</c:v>
+                  <c:v>166.76</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>157.19999999999999</c:v>
+                  <c:v>166.82</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>157.30000000000001</c:v>
+                  <c:v>166.93</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>157.41999999999999</c:v>
+                  <c:v>167.08</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>157.47</c:v>
+                  <c:v>167.14</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>157.47999999999999</c:v>
+                  <c:v>167.18</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>157.61000000000001</c:v>
+                  <c:v>167.33</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>157.66</c:v>
+                  <c:v>167.35</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>157.81</c:v>
+                  <c:v>167.52</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>157.99</c:v>
+                  <c:v>167.7</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>157.94</c:v>
+                  <c:v>167.62</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>158.08000000000001</c:v>
+                  <c:v>167.77</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>158.05000000000001</c:v>
+                  <c:v>167.74</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>158.13</c:v>
+                  <c:v>167.83</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>158.22999999999999</c:v>
+                  <c:v>167.94</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>158.35</c:v>
+                  <c:v>168.06</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>158.44999999999999</c:v>
+                  <c:v>168.17</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>158.55000000000001</c:v>
+                  <c:v>168.28</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>158.63999999999999</c:v>
+                  <c:v>168.36</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>158.66999999999999</c:v>
+                  <c:v>168.4</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>158.80000000000001</c:v>
+                  <c:v>168.54</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>158.84</c:v>
+                  <c:v>168.6</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>158.91999999999999</c:v>
+                  <c:v>168.68</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>158.97999999999999</c:v>
+                  <c:v>168.75</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>159.06</c:v>
+                  <c:v>168.83</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>159.15</c:v>
+                  <c:v>168.89</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>159.19</c:v>
+                  <c:v>168.97</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>159.33000000000001</c:v>
+                  <c:v>169.11</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>159.4</c:v>
+                  <c:v>169.21</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>159.35</c:v>
+                  <c:v>169.18</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>159.4</c:v>
+                  <c:v>169.25</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>159.47999999999999</c:v>
+                  <c:v>169.37</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>159.54</c:v>
+                  <c:v>169.45</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>159.66</c:v>
+                  <c:v>169.61</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>159.75</c:v>
+                  <c:v>169.71</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>159.81</c:v>
+                  <c:v>169.77</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>159.84</c:v>
+                  <c:v>169.79</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>160.13</c:v>
+                  <c:v>170.1</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>160.11000000000001</c:v>
+                  <c:v>170.09</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>160.09</c:v>
+                  <c:v>170.1</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>160.09</c:v>
+                  <c:v>170.11</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>160.16999999999999</c:v>
+                  <c:v>170.24</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>160.27000000000001</c:v>
+                  <c:v>170.34</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>160.29</c:v>
+                  <c:v>170.36</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>160.35</c:v>
+                  <c:v>170.42</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>160.46</c:v>
+                  <c:v>170.54</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>160.52000000000001</c:v>
+                  <c:v>170.59</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>160.59</c:v>
+                  <c:v>170.67</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>160.72</c:v>
+                  <c:v>170.79</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>160.77000000000001</c:v>
+                  <c:v>170.85</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>160.76</c:v>
+                  <c:v>170.84</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>160.82</c:v>
+                  <c:v>170.88</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>160.96</c:v>
+                  <c:v>170.99</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>161.01</c:v>
+                  <c:v>171.07</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>161.08000000000001</c:v>
+                  <c:v>171.15</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>161.08000000000001</c:v>
+                  <c:v>171.16</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>161.16</c:v>
+                  <c:v>171.24</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>161.26</c:v>
+                  <c:v>171.33</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>161.31</c:v>
+                  <c:v>171.39</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>161.36000000000001</c:v>
+                  <c:v>171.49</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>161.38999999999999</c:v>
+                  <c:v>171.5</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>161.49</c:v>
+                  <c:v>171.6</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>161.41</c:v>
+                  <c:v>171.57</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>161.58000000000001</c:v>
+                  <c:v>171.71</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>161.63999999999999</c:v>
+                  <c:v>171.81</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>161.69999999999999</c:v>
+                  <c:v>171.86</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>161.80000000000001</c:v>
+                  <c:v>171.96</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>161.87</c:v>
+                  <c:v>172.06</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>161.82</c:v>
+                  <c:v>172.01</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>161.94999999999999</c:v>
+                  <c:v>172.15</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>162.09</c:v>
+                  <c:v>172.31</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>162.08000000000001</c:v>
+                  <c:v>172.32</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>162.16999999999999</c:v>
+                  <c:v>172.41</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>162.12</c:v>
+                  <c:v>172.4</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>162.19999999999999</c:v>
+                  <c:v>172.44</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>162.13</c:v>
+                  <c:v>172.39</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>162.35</c:v>
+                  <c:v>172.61</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>162.37</c:v>
+                  <c:v>172.62</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>162.43</c:v>
+                  <c:v>172.71</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>162.47999999999999</c:v>
+                  <c:v>172.76</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>162.53</c:v>
+                  <c:v>172.84</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>162.63999999999999</c:v>
+                  <c:v>172.94</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>162.69999999999999</c:v>
+                  <c:v>172.99</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>162.66</c:v>
+                  <c:v>172.95</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>162.71</c:v>
+                  <c:v>173.01</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>162.80000000000001</c:v>
+                  <c:v>173.08</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>162.86000000000001</c:v>
+                  <c:v>173.14</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>162.9</c:v>
+                  <c:v>173.18</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>163.06</c:v>
+                  <c:v>173.36</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>163.1</c:v>
+                  <c:v>173.4</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>163.12</c:v>
+                  <c:v>173.43</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>163.15</c:v>
+                  <c:v>173.46</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>163.13999999999999</c:v>
+                  <c:v>173.46</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>163.22999999999999</c:v>
+                  <c:v>173.58</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>163.24</c:v>
+                  <c:v>173.59</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>163.31</c:v>
+                  <c:v>173.68</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>163.38999999999999</c:v>
+                  <c:v>173.77</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>163.5</c:v>
+                  <c:v>173.87</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>163.69</c:v>
+                  <c:v>174.06</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>163.72</c:v>
+                  <c:v>174.09</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>163.56</c:v>
+                  <c:v>173.93</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>163.72999999999999</c:v>
+                  <c:v>174.07</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>163.66</c:v>
+                  <c:v>173.99</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>163.88</c:v>
+                  <c:v>174.23</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>163.82</c:v>
+                  <c:v>174.18</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>163.87</c:v>
+                  <c:v>174.26</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>163.94</c:v>
+                  <c:v>174.31</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>164.04</c:v>
+                  <c:v>174.42</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>164.09</c:v>
+                  <c:v>174.47</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>164.25</c:v>
+                  <c:v>174.61</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>164.29</c:v>
+                  <c:v>174.64</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>164.26</c:v>
+                  <c:v>174.58</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>164.4</c:v>
+                  <c:v>174.71</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>164.43</c:v>
+                  <c:v>174.72</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>164.38</c:v>
+                  <c:v>174.7</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>164.41</c:v>
+                  <c:v>174.74</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>164.6</c:v>
+                  <c:v>174.94</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>164.55</c:v>
+                  <c:v>174.92</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>164.56</c:v>
+                  <c:v>174.9</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>164.7</c:v>
+                  <c:v>175.03</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>164.79</c:v>
+                  <c:v>175.12</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>164.82</c:v>
+                  <c:v>175.14</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>164.89</c:v>
+                  <c:v>175.2</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>164.94</c:v>
+                  <c:v>175.24</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>164.9</c:v>
+                  <c:v>175.21</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>164.94</c:v>
+                  <c:v>175.25</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>165.08</c:v>
+                  <c:v>175.39</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>165.1</c:v>
+                  <c:v>175.42</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>165.14</c:v>
+                  <c:v>175.47</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>165.25</c:v>
+                  <c:v>175.58</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>165.3</c:v>
+                  <c:v>175.66</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>165.17</c:v>
+                  <c:v>175.57</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>165.4</c:v>
+                  <c:v>175.76</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>165.35</c:v>
+                  <c:v>175.71</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>165.47</c:v>
+                  <c:v>175.8</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>165.54</c:v>
+                  <c:v>175.88</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>165.5</c:v>
+                  <c:v>175.87</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>165.59</c:v>
+                  <c:v>175.92</c:v>
                 </c:pt>
                 <c:pt idx="512">
-                  <c:v>165.64</c:v>
+                  <c:v>175.95</c:v>
                 </c:pt>
                 <c:pt idx="513">
-                  <c:v>165.68</c:v>
+                  <c:v>175.97</c:v>
                 </c:pt>
                 <c:pt idx="514">
-                  <c:v>165.8</c:v>
+                  <c:v>176.07</c:v>
                 </c:pt>
                 <c:pt idx="515">
-                  <c:v>165.83</c:v>
+                  <c:v>176.11</c:v>
                 </c:pt>
                 <c:pt idx="516">
-                  <c:v>165.84</c:v>
+                  <c:v>176.11</c:v>
                 </c:pt>
                 <c:pt idx="517">
-                  <c:v>165.94</c:v>
+                  <c:v>176.22</c:v>
                 </c:pt>
                 <c:pt idx="518">
-                  <c:v>165.94</c:v>
+                  <c:v>176.22</c:v>
                 </c:pt>
                 <c:pt idx="519">
-                  <c:v>165.94</c:v>
+                  <c:v>176.2</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>166.1</c:v>
+                  <c:v>176.35</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>166.11</c:v>
+                  <c:v>176.37</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>166.21</c:v>
+                  <c:v>176.45</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>166.2</c:v>
+                  <c:v>176.42</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>166.21</c:v>
+                  <c:v>176.48</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>166.18</c:v>
+                  <c:v>176.43</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>166.32</c:v>
+                  <c:v>176.57</c:v>
                 </c:pt>
                 <c:pt idx="527">
-                  <c:v>166.37</c:v>
+                  <c:v>176.62</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>166.48</c:v>
+                  <c:v>176.74</c:v>
                 </c:pt>
                 <c:pt idx="529">
-                  <c:v>166.46</c:v>
+                  <c:v>176.72</c:v>
                 </c:pt>
                 <c:pt idx="530">
-                  <c:v>166.43</c:v>
+                  <c:v>176.69</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>166.59</c:v>
+                  <c:v>176.84</c:v>
                 </c:pt>
                 <c:pt idx="532">
-                  <c:v>166.64</c:v>
+                  <c:v>176.9</c:v>
                 </c:pt>
                 <c:pt idx="533">
-                  <c:v>166.63</c:v>
+                  <c:v>176.89</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>166.72</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="535">
-                  <c:v>166.72</c:v>
+                  <c:v>176.99</c:v>
                 </c:pt>
                 <c:pt idx="536">
-                  <c:v>166.7</c:v>
+                  <c:v>176.99</c:v>
                 </c:pt>
                 <c:pt idx="537">
-                  <c:v>166.89</c:v>
+                  <c:v>177.19</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>166.87</c:v>
+                  <c:v>177.17</c:v>
                 </c:pt>
                 <c:pt idx="539">
-                  <c:v>166.84</c:v>
+                  <c:v>177.09</c:v>
                 </c:pt>
                 <c:pt idx="540">
-                  <c:v>166.89</c:v>
+                  <c:v>177.16</c:v>
                 </c:pt>
                 <c:pt idx="541">
-                  <c:v>166.97</c:v>
+                  <c:v>177.26</c:v>
                 </c:pt>
                 <c:pt idx="542">
-                  <c:v>167.05</c:v>
+                  <c:v>177.3</c:v>
                 </c:pt>
                 <c:pt idx="543">
-                  <c:v>166.96</c:v>
+                  <c:v>177.2</c:v>
                 </c:pt>
                 <c:pt idx="544">
-                  <c:v>167.01</c:v>
+                  <c:v>177.25</c:v>
                 </c:pt>
                 <c:pt idx="545">
-                  <c:v>167.19</c:v>
+                  <c:v>177.44</c:v>
                 </c:pt>
                 <c:pt idx="546">
-                  <c:v>167.08</c:v>
+                  <c:v>177.32</c:v>
                 </c:pt>
                 <c:pt idx="547">
-                  <c:v>167.27</c:v>
+                  <c:v>177.51</c:v>
                 </c:pt>
                 <c:pt idx="548">
-                  <c:v>167.25</c:v>
+                  <c:v>177.53</c:v>
                 </c:pt>
                 <c:pt idx="549">
-                  <c:v>167.38</c:v>
+                  <c:v>177.65</c:v>
                 </c:pt>
                 <c:pt idx="550">
-                  <c:v>167.29</c:v>
+                  <c:v>177.56</c:v>
                 </c:pt>
                 <c:pt idx="551">
-                  <c:v>167.38</c:v>
+                  <c:v>177.67</c:v>
                 </c:pt>
                 <c:pt idx="552">
-                  <c:v>167.46</c:v>
+                  <c:v>177.76</c:v>
                 </c:pt>
                 <c:pt idx="553">
-                  <c:v>167.46</c:v>
+                  <c:v>177.77</c:v>
                 </c:pt>
                 <c:pt idx="554">
-                  <c:v>167.45</c:v>
+                  <c:v>177.77</c:v>
                 </c:pt>
                 <c:pt idx="555">
-                  <c:v>167.44</c:v>
+                  <c:v>177.74</c:v>
                 </c:pt>
                 <c:pt idx="556">
-                  <c:v>167.64</c:v>
+                  <c:v>177.97</c:v>
                 </c:pt>
                 <c:pt idx="557">
-                  <c:v>167.56</c:v>
+                  <c:v>177.88</c:v>
                 </c:pt>
                 <c:pt idx="558">
-                  <c:v>167.57</c:v>
+                  <c:v>177.89</c:v>
                 </c:pt>
                 <c:pt idx="559">
-                  <c:v>167.64</c:v>
+                  <c:v>177.99</c:v>
                 </c:pt>
                 <c:pt idx="560">
-                  <c:v>167.61</c:v>
+                  <c:v>177.98</c:v>
                 </c:pt>
                 <c:pt idx="561">
-                  <c:v>167.63</c:v>
+                  <c:v>177.99</c:v>
                 </c:pt>
                 <c:pt idx="562">
-                  <c:v>167.71</c:v>
+                  <c:v>178.09</c:v>
                 </c:pt>
                 <c:pt idx="563">
-                  <c:v>167.83</c:v>
+                  <c:v>178.22</c:v>
                 </c:pt>
                 <c:pt idx="564">
-                  <c:v>167.72</c:v>
+                  <c:v>178.11</c:v>
                 </c:pt>
                 <c:pt idx="565">
-                  <c:v>167.84</c:v>
+                  <c:v>178.24</c:v>
                 </c:pt>
                 <c:pt idx="566">
-                  <c:v>167.83</c:v>
+                  <c:v>178.22</c:v>
                 </c:pt>
                 <c:pt idx="567">
-                  <c:v>167.88</c:v>
+                  <c:v>178.25</c:v>
                 </c:pt>
                 <c:pt idx="568">
-                  <c:v>167.94</c:v>
+                  <c:v>178.29</c:v>
                 </c:pt>
                 <c:pt idx="569">
-                  <c:v>168.06</c:v>
+                  <c:v>178.4</c:v>
                 </c:pt>
                 <c:pt idx="570">
-                  <c:v>168.09</c:v>
+                  <c:v>178.45</c:v>
                 </c:pt>
                 <c:pt idx="571">
-                  <c:v>168.07</c:v>
+                  <c:v>178.42</c:v>
                 </c:pt>
                 <c:pt idx="572">
-                  <c:v>168.12</c:v>
+                  <c:v>178.48</c:v>
                 </c:pt>
                 <c:pt idx="573">
-                  <c:v>168.14</c:v>
+                  <c:v>178.51</c:v>
                 </c:pt>
                 <c:pt idx="574">
-                  <c:v>168.13</c:v>
+                  <c:v>178.5</c:v>
                 </c:pt>
                 <c:pt idx="575">
-                  <c:v>168.32</c:v>
+                  <c:v>178.68</c:v>
                 </c:pt>
                 <c:pt idx="576">
-                  <c:v>168.35</c:v>
+                  <c:v>178.73</c:v>
                 </c:pt>
                 <c:pt idx="577">
-                  <c:v>168.24</c:v>
+                  <c:v>178.63</c:v>
                 </c:pt>
                 <c:pt idx="578">
-                  <c:v>168.32</c:v>
+                  <c:v>178.73</c:v>
                 </c:pt>
                 <c:pt idx="579">
-                  <c:v>168.28</c:v>
+                  <c:v>178.68</c:v>
                 </c:pt>
                 <c:pt idx="580">
-                  <c:v>168.39</c:v>
+                  <c:v>178.8</c:v>
                 </c:pt>
                 <c:pt idx="581">
-                  <c:v>168.47</c:v>
+                  <c:v>178.88</c:v>
                 </c:pt>
                 <c:pt idx="582">
-                  <c:v>168.51</c:v>
+                  <c:v>178.91</c:v>
                 </c:pt>
                 <c:pt idx="583">
-                  <c:v>168.52</c:v>
+                  <c:v>178.94</c:v>
                 </c:pt>
                 <c:pt idx="584">
-                  <c:v>168.63</c:v>
+                  <c:v>179.02</c:v>
                 </c:pt>
                 <c:pt idx="585">
-                  <c:v>168.52</c:v>
+                  <c:v>178.9</c:v>
                 </c:pt>
                 <c:pt idx="586">
-                  <c:v>168.64</c:v>
+                  <c:v>179.01</c:v>
                 </c:pt>
                 <c:pt idx="587">
-                  <c:v>168.72</c:v>
+                  <c:v>179.11</c:v>
                 </c:pt>
                 <c:pt idx="588">
-                  <c:v>168.79</c:v>
+                  <c:v>179.15</c:v>
                 </c:pt>
                 <c:pt idx="589">
-                  <c:v>168.73</c:v>
+                  <c:v>179.09</c:v>
                 </c:pt>
                 <c:pt idx="590">
-                  <c:v>168.72</c:v>
+                  <c:v>179.06</c:v>
                 </c:pt>
                 <c:pt idx="591">
-                  <c:v>168.84</c:v>
+                  <c:v>179.19</c:v>
                 </c:pt>
                 <c:pt idx="592">
-                  <c:v>168.83</c:v>
+                  <c:v>179.18</c:v>
                 </c:pt>
                 <c:pt idx="593">
-                  <c:v>169</c:v>
+                  <c:v>179.34</c:v>
                 </c:pt>
                 <c:pt idx="594">
-                  <c:v>168.95</c:v>
+                  <c:v>179.29</c:v>
                 </c:pt>
                 <c:pt idx="595">
-                  <c:v>169.04</c:v>
+                  <c:v>179.39</c:v>
                 </c:pt>
                 <c:pt idx="596">
-                  <c:v>169.06</c:v>
+                  <c:v>179.41</c:v>
                 </c:pt>
                 <c:pt idx="597">
-                  <c:v>168.98</c:v>
+                  <c:v>179.34</c:v>
                 </c:pt>
                 <c:pt idx="598">
-                  <c:v>169.22</c:v>
+                  <c:v>179.59</c:v>
                 </c:pt>
                 <c:pt idx="599">
-                  <c:v>169.15</c:v>
+                  <c:v>179.49</c:v>
                 </c:pt>
                 <c:pt idx="600">
-                  <c:v>169.18</c:v>
+                  <c:v>179.52</c:v>
                 </c:pt>
                 <c:pt idx="601">
-                  <c:v>169.2</c:v>
+                  <c:v>179.53</c:v>
                 </c:pt>
                 <c:pt idx="602">
-                  <c:v>169.19</c:v>
+                  <c:v>179.51</c:v>
                 </c:pt>
                 <c:pt idx="603">
-                  <c:v>169.3</c:v>
+                  <c:v>179.62</c:v>
                 </c:pt>
                 <c:pt idx="604">
-                  <c:v>169.31</c:v>
+                  <c:v>179.61</c:v>
                 </c:pt>
                 <c:pt idx="605">
-                  <c:v>169.43</c:v>
+                  <c:v>179.76</c:v>
                 </c:pt>
                 <c:pt idx="606">
-                  <c:v>169.43</c:v>
+                  <c:v>179.75</c:v>
                 </c:pt>
                 <c:pt idx="607">
-                  <c:v>169.42</c:v>
+                  <c:v>179.77</c:v>
                 </c:pt>
                 <c:pt idx="608">
-                  <c:v>169.46</c:v>
+                  <c:v>179.78</c:v>
                 </c:pt>
                 <c:pt idx="609">
-                  <c:v>169.53</c:v>
+                  <c:v>179.84</c:v>
                 </c:pt>
                 <c:pt idx="610">
-                  <c:v>169.64</c:v>
+                  <c:v>179.93</c:v>
                 </c:pt>
                 <c:pt idx="611">
-                  <c:v>169.68</c:v>
+                  <c:v>179.96</c:v>
                 </c:pt>
                 <c:pt idx="612">
-                  <c:v>169.69</c:v>
+                  <c:v>179.94</c:v>
                 </c:pt>
                 <c:pt idx="613">
-                  <c:v>169.73</c:v>
+                  <c:v>179.96</c:v>
                 </c:pt>
                 <c:pt idx="614">
-                  <c:v>169.81</c:v>
+                  <c:v>180.06</c:v>
                 </c:pt>
                 <c:pt idx="615">
-                  <c:v>169.87</c:v>
+                  <c:v>180.12</c:v>
                 </c:pt>
                 <c:pt idx="616">
-                  <c:v>169.82</c:v>
+                  <c:v>180.09</c:v>
                 </c:pt>
                 <c:pt idx="617">
-                  <c:v>169.82</c:v>
+                  <c:v>180.09</c:v>
                 </c:pt>
                 <c:pt idx="618">
-                  <c:v>169.89</c:v>
+                  <c:v>180.15</c:v>
                 </c:pt>
                 <c:pt idx="619">
-                  <c:v>169.9</c:v>
+                  <c:v>180.17</c:v>
                 </c:pt>
                 <c:pt idx="620">
-                  <c:v>169.95</c:v>
+                  <c:v>180.23</c:v>
                 </c:pt>
                 <c:pt idx="621">
-                  <c:v>170.01</c:v>
+                  <c:v>180.27</c:v>
                 </c:pt>
                 <c:pt idx="622">
-                  <c:v>170.03</c:v>
+                  <c:v>180.28</c:v>
                 </c:pt>
                 <c:pt idx="623">
-                  <c:v>170.07</c:v>
+                  <c:v>180.32</c:v>
                 </c:pt>
                 <c:pt idx="624">
-                  <c:v>170.17</c:v>
+                  <c:v>180.38</c:v>
                 </c:pt>
                 <c:pt idx="625">
-                  <c:v>170.17</c:v>
+                  <c:v>180.4</c:v>
                 </c:pt>
                 <c:pt idx="626">
-                  <c:v>170.2</c:v>
+                  <c:v>180.42</c:v>
                 </c:pt>
                 <c:pt idx="627">
-                  <c:v>170.3</c:v>
+                  <c:v>180.52</c:v>
                 </c:pt>
                 <c:pt idx="628">
-                  <c:v>170.23</c:v>
+                  <c:v>180.43</c:v>
                 </c:pt>
                 <c:pt idx="629">
-                  <c:v>170.22</c:v>
+                  <c:v>180.43</c:v>
                 </c:pt>
                 <c:pt idx="630">
-                  <c:v>170.25</c:v>
+                  <c:v>180.47</c:v>
                 </c:pt>
                 <c:pt idx="631">
-                  <c:v>170.45</c:v>
+                  <c:v>180.65</c:v>
                 </c:pt>
                 <c:pt idx="632">
-                  <c:v>170.34</c:v>
+                  <c:v>180.54</c:v>
                 </c:pt>
                 <c:pt idx="633">
-                  <c:v>170.3</c:v>
+                  <c:v>180.49</c:v>
                 </c:pt>
                 <c:pt idx="634">
-                  <c:v>170.33</c:v>
+                  <c:v>180.53</c:v>
                 </c:pt>
                 <c:pt idx="635">
-                  <c:v>170.53</c:v>
+                  <c:v>180.71</c:v>
                 </c:pt>
                 <c:pt idx="636">
-                  <c:v>170.49</c:v>
+                  <c:v>180.66</c:v>
                 </c:pt>
                 <c:pt idx="637">
-                  <c:v>170.54</c:v>
+                  <c:v>180.7</c:v>
                 </c:pt>
                 <c:pt idx="638">
-                  <c:v>170.56</c:v>
+                  <c:v>180.71</c:v>
                 </c:pt>
                 <c:pt idx="639">
-                  <c:v>170.73</c:v>
+                  <c:v>180.89</c:v>
                 </c:pt>
                 <c:pt idx="640">
-                  <c:v>170.51</c:v>
+                  <c:v>180.65</c:v>
                 </c:pt>
                 <c:pt idx="641">
-                  <c:v>170.71</c:v>
+                  <c:v>180.85</c:v>
                 </c:pt>
                 <c:pt idx="642">
-                  <c:v>170.76</c:v>
+                  <c:v>180.9</c:v>
                 </c:pt>
                 <c:pt idx="643">
-                  <c:v>170.75</c:v>
+                  <c:v>180.89</c:v>
                 </c:pt>
                 <c:pt idx="644">
-                  <c:v>170.8</c:v>
+                  <c:v>180.94</c:v>
                 </c:pt>
                 <c:pt idx="645">
-                  <c:v>170.71</c:v>
+                  <c:v>180.84</c:v>
                 </c:pt>
                 <c:pt idx="646">
-                  <c:v>170.81</c:v>
+                  <c:v>180.94</c:v>
                 </c:pt>
                 <c:pt idx="647">
-                  <c:v>170.89</c:v>
+                  <c:v>181.01</c:v>
                 </c:pt>
                 <c:pt idx="648">
-                  <c:v>171.05</c:v>
+                  <c:v>181.18</c:v>
                 </c:pt>
                 <c:pt idx="649">
-                  <c:v>170.94</c:v>
+                  <c:v>181.07</c:v>
                 </c:pt>
                 <c:pt idx="650">
-                  <c:v>171.03</c:v>
+                  <c:v>181.16</c:v>
                 </c:pt>
                 <c:pt idx="651">
-                  <c:v>171.05</c:v>
+                  <c:v>181.18</c:v>
                 </c:pt>
                 <c:pt idx="652">
-                  <c:v>171.07</c:v>
+                  <c:v>181.17</c:v>
                 </c:pt>
                 <c:pt idx="653">
-                  <c:v>171.08</c:v>
+                  <c:v>181.18</c:v>
                 </c:pt>
                 <c:pt idx="654">
-                  <c:v>171.21</c:v>
+                  <c:v>181.3</c:v>
                 </c:pt>
                 <c:pt idx="655">
-                  <c:v>171.49</c:v>
+                  <c:v>181.58</c:v>
                 </c:pt>
                 <c:pt idx="656">
-                  <c:v>171.24</c:v>
+                  <c:v>181.32</c:v>
                 </c:pt>
                 <c:pt idx="657">
-                  <c:v>171.29</c:v>
+                  <c:v>181.36</c:v>
                 </c:pt>
                 <c:pt idx="658">
-                  <c:v>171.34</c:v>
+                  <c:v>181.41</c:v>
                 </c:pt>
                 <c:pt idx="659">
-                  <c:v>171.29</c:v>
+                  <c:v>181.35</c:v>
                 </c:pt>
                 <c:pt idx="660">
-                  <c:v>171.29</c:v>
+                  <c:v>181.34</c:v>
                 </c:pt>
                 <c:pt idx="661">
-                  <c:v>171.34</c:v>
+                  <c:v>181.36</c:v>
                 </c:pt>
                 <c:pt idx="662">
-                  <c:v>171.35</c:v>
+                  <c:v>181.38</c:v>
                 </c:pt>
                 <c:pt idx="663">
-                  <c:v>171.47</c:v>
+                  <c:v>181.51</c:v>
                 </c:pt>
                 <c:pt idx="664">
-                  <c:v>171.46</c:v>
+                  <c:v>181.5</c:v>
                 </c:pt>
                 <c:pt idx="665">
-                  <c:v>171.38</c:v>
+                  <c:v>181.41</c:v>
                 </c:pt>
                 <c:pt idx="666">
-                  <c:v>171.5</c:v>
+                  <c:v>181.52</c:v>
                 </c:pt>
                 <c:pt idx="667">
-                  <c:v>171.57</c:v>
+                  <c:v>181.61</c:v>
                 </c:pt>
                 <c:pt idx="668">
-                  <c:v>171.6</c:v>
+                  <c:v>181.62</c:v>
                 </c:pt>
                 <c:pt idx="669">
-                  <c:v>171.63</c:v>
+                  <c:v>181.62</c:v>
                 </c:pt>
                 <c:pt idx="670">
-                  <c:v>171.67</c:v>
+                  <c:v>181.64</c:v>
                 </c:pt>
                 <c:pt idx="671">
-                  <c:v>171.59</c:v>
+                  <c:v>181.55</c:v>
                 </c:pt>
                 <c:pt idx="672">
-                  <c:v>171.68</c:v>
+                  <c:v>181.62</c:v>
                 </c:pt>
                 <c:pt idx="673">
-                  <c:v>171.82</c:v>
+                  <c:v>181.73</c:v>
                 </c:pt>
                 <c:pt idx="674">
-                  <c:v>171.8</c:v>
+                  <c:v>181.74</c:v>
                 </c:pt>
                 <c:pt idx="675">
-                  <c:v>171.82</c:v>
+                  <c:v>181.74</c:v>
                 </c:pt>
                 <c:pt idx="676">
-                  <c:v>171.88</c:v>
+                  <c:v>181.78</c:v>
                 </c:pt>
                 <c:pt idx="677">
-                  <c:v>171.99</c:v>
+                  <c:v>181.88</c:v>
                 </c:pt>
                 <c:pt idx="678">
-                  <c:v>171.99</c:v>
+                  <c:v>181.88</c:v>
                 </c:pt>
                 <c:pt idx="679">
-                  <c:v>171.98</c:v>
+                  <c:v>181.85</c:v>
                 </c:pt>
                 <c:pt idx="680">
-                  <c:v>172.06</c:v>
+                  <c:v>181.93</c:v>
                 </c:pt>
                 <c:pt idx="681">
-                  <c:v>172.04</c:v>
+                  <c:v>181.92</c:v>
                 </c:pt>
                 <c:pt idx="682">
-                  <c:v>172.08</c:v>
+                  <c:v>181.94</c:v>
                 </c:pt>
                 <c:pt idx="683">
-                  <c:v>172.15</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="684">
-                  <c:v>172.12</c:v>
+                  <c:v>181.96</c:v>
                 </c:pt>
                 <c:pt idx="685">
-                  <c:v>172.21</c:v>
+                  <c:v>182.06</c:v>
                 </c:pt>
                 <c:pt idx="686">
-                  <c:v>172.33</c:v>
+                  <c:v>182.16</c:v>
                 </c:pt>
                 <c:pt idx="687">
-                  <c:v>172.31</c:v>
+                  <c:v>182.15</c:v>
                 </c:pt>
                 <c:pt idx="688">
-                  <c:v>172.28</c:v>
+                  <c:v>182.1</c:v>
                 </c:pt>
                 <c:pt idx="689">
-                  <c:v>172.34</c:v>
+                  <c:v>182.16</c:v>
                 </c:pt>
                 <c:pt idx="690">
-                  <c:v>172.39</c:v>
+                  <c:v>182.19</c:v>
                 </c:pt>
                 <c:pt idx="691">
-                  <c:v>172.47</c:v>
+                  <c:v>182.27</c:v>
                 </c:pt>
                 <c:pt idx="692">
-                  <c:v>172.44</c:v>
+                  <c:v>182.23</c:v>
                 </c:pt>
                 <c:pt idx="693">
-                  <c:v>172.54</c:v>
+                  <c:v>182.31</c:v>
                 </c:pt>
                 <c:pt idx="694">
-                  <c:v>172.55</c:v>
+                  <c:v>182.33</c:v>
                 </c:pt>
                 <c:pt idx="695">
-                  <c:v>172.56</c:v>
+                  <c:v>182.31</c:v>
                 </c:pt>
                 <c:pt idx="696">
-                  <c:v>172.65</c:v>
+                  <c:v>182.39</c:v>
                 </c:pt>
                 <c:pt idx="697">
-                  <c:v>172.55</c:v>
+                  <c:v>182.23</c:v>
                 </c:pt>
                 <c:pt idx="698">
-                  <c:v>172.6</c:v>
+                  <c:v>182.3</c:v>
                 </c:pt>
                 <c:pt idx="699">
-                  <c:v>172.64</c:v>
+                  <c:v>182.33</c:v>
                 </c:pt>
                 <c:pt idx="700">
-                  <c:v>172.72</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="701">
-                  <c:v>172.86</c:v>
+                  <c:v>182.55</c:v>
                 </c:pt>
                 <c:pt idx="702">
-                  <c:v>172.85</c:v>
+                  <c:v>182.52</c:v>
                 </c:pt>
                 <c:pt idx="703">
-                  <c:v>172.88</c:v>
+                  <c:v>182.54</c:v>
                 </c:pt>
                 <c:pt idx="704">
-                  <c:v>173.01</c:v>
+                  <c:v>182.66</c:v>
                 </c:pt>
                 <c:pt idx="705">
-                  <c:v>173.04</c:v>
+                  <c:v>182.68</c:v>
                 </c:pt>
                 <c:pt idx="706">
-                  <c:v>173</c:v>
+                  <c:v>182.63</c:v>
                 </c:pt>
                 <c:pt idx="707">
-                  <c:v>173.13</c:v>
+                  <c:v>182.75</c:v>
                 </c:pt>
                 <c:pt idx="708">
-                  <c:v>173.14</c:v>
+                  <c:v>182.74</c:v>
                 </c:pt>
                 <c:pt idx="709">
-                  <c:v>173.06</c:v>
+                  <c:v>182.68</c:v>
                 </c:pt>
                 <c:pt idx="710">
-                  <c:v>173.09</c:v>
+                  <c:v>182.71</c:v>
                 </c:pt>
                 <c:pt idx="711">
-                  <c:v>173.11</c:v>
+                  <c:v>182.72</c:v>
                 </c:pt>
                 <c:pt idx="712">
-                  <c:v>173.1</c:v>
+                  <c:v>182.74</c:v>
                 </c:pt>
                 <c:pt idx="713">
-                  <c:v>173.22</c:v>
+                  <c:v>182.85</c:v>
                 </c:pt>
                 <c:pt idx="714">
-                  <c:v>173.26</c:v>
+                  <c:v>182.9</c:v>
                 </c:pt>
                 <c:pt idx="715">
-                  <c:v>173.18</c:v>
+                  <c:v>182.82</c:v>
                 </c:pt>
                 <c:pt idx="716">
-                  <c:v>173.22</c:v>
+                  <c:v>182.88</c:v>
                 </c:pt>
                 <c:pt idx="717">
-                  <c:v>173.25</c:v>
+                  <c:v>182.89</c:v>
                 </c:pt>
                 <c:pt idx="718">
-                  <c:v>173.24</c:v>
+                  <c:v>182.91</c:v>
                 </c:pt>
                 <c:pt idx="719">
-                  <c:v>173.25</c:v>
+                  <c:v>182.91</c:v>
                 </c:pt>
                 <c:pt idx="720">
-                  <c:v>173.32</c:v>
+                  <c:v>182.99</c:v>
                 </c:pt>
                 <c:pt idx="721">
-                  <c:v>173.35</c:v>
+                  <c:v>183.03</c:v>
                 </c:pt>
                 <c:pt idx="722">
-                  <c:v>173.3</c:v>
+                  <c:v>182.98</c:v>
                 </c:pt>
                 <c:pt idx="723">
-                  <c:v>173.44</c:v>
+                  <c:v>183.12</c:v>
                 </c:pt>
                 <c:pt idx="724">
-                  <c:v>174.45</c:v>
+                  <c:v>183.18</c:v>
                 </c:pt>
                 <c:pt idx="725">
-                  <c:v>174.5</c:v>
+                  <c:v>183.19</c:v>
                 </c:pt>
                 <c:pt idx="726">
-                  <c:v>174.53</c:v>
+                  <c:v>183.24</c:v>
                 </c:pt>
                 <c:pt idx="727">
-                  <c:v>174.5</c:v>
+                  <c:v>183.22</c:v>
                 </c:pt>
                 <c:pt idx="728">
-                  <c:v>174.52</c:v>
+                  <c:v>183.24</c:v>
                 </c:pt>
                 <c:pt idx="729">
-                  <c:v>174.51</c:v>
+                  <c:v>183.22</c:v>
                 </c:pt>
                 <c:pt idx="730">
-                  <c:v>174.46</c:v>
+                  <c:v>183.15</c:v>
                 </c:pt>
                 <c:pt idx="731">
-                  <c:v>174.93</c:v>
+                  <c:v>183.66</c:v>
                 </c:pt>
                 <c:pt idx="732">
-                  <c:v>174.64</c:v>
+                  <c:v>183.36</c:v>
                 </c:pt>
                 <c:pt idx="733">
-                  <c:v>174.63</c:v>
+                  <c:v>183.33</c:v>
                 </c:pt>
                 <c:pt idx="734">
-                  <c:v>174.6</c:v>
+                  <c:v>183.31</c:v>
                 </c:pt>
                 <c:pt idx="735">
-                  <c:v>174.61</c:v>
+                  <c:v>183.33</c:v>
                 </c:pt>
                 <c:pt idx="736">
-                  <c:v>174.57</c:v>
+                  <c:v>183.29</c:v>
                 </c:pt>
                 <c:pt idx="737">
-                  <c:v>174.62</c:v>
+                  <c:v>183.33</c:v>
                 </c:pt>
                 <c:pt idx="738">
-                  <c:v>174.65</c:v>
+                  <c:v>183.35</c:v>
                 </c:pt>
                 <c:pt idx="739">
-                  <c:v>174.73</c:v>
+                  <c:v>183.42</c:v>
                 </c:pt>
                 <c:pt idx="740">
-                  <c:v>174.82</c:v>
+                  <c:v>183.53</c:v>
                 </c:pt>
                 <c:pt idx="741">
-                  <c:v>174.81</c:v>
+                  <c:v>183.51</c:v>
                 </c:pt>
                 <c:pt idx="742">
-                  <c:v>174.76</c:v>
+                  <c:v>183.46</c:v>
                 </c:pt>
                 <c:pt idx="743">
-                  <c:v>174.98</c:v>
+                  <c:v>183.68</c:v>
                 </c:pt>
                 <c:pt idx="744">
-                  <c:v>174.93</c:v>
+                  <c:v>183.6</c:v>
                 </c:pt>
                 <c:pt idx="745">
-                  <c:v>174.97</c:v>
+                  <c:v>183.64</c:v>
                 </c:pt>
                 <c:pt idx="746">
-                  <c:v>174.94</c:v>
+                  <c:v>183.6</c:v>
                 </c:pt>
                 <c:pt idx="747">
-                  <c:v>174.95</c:v>
+                  <c:v>183.59</c:v>
                 </c:pt>
                 <c:pt idx="748">
-                  <c:v>175.02</c:v>
+                  <c:v>183.65</c:v>
                 </c:pt>
                 <c:pt idx="749">
-                  <c:v>175.11</c:v>
+                  <c:v>183.74</c:v>
                 </c:pt>
                 <c:pt idx="750">
-                  <c:v>175.07</c:v>
+                  <c:v>183.7</c:v>
                 </c:pt>
                 <c:pt idx="751">
-                  <c:v>175.1</c:v>
+                  <c:v>183.71</c:v>
                 </c:pt>
                 <c:pt idx="752">
-                  <c:v>175.04</c:v>
+                  <c:v>183.64</c:v>
                 </c:pt>
                 <c:pt idx="753">
-                  <c:v>175.06</c:v>
+                  <c:v>183.66</c:v>
                 </c:pt>
                 <c:pt idx="754">
-                  <c:v>175.06</c:v>
+                  <c:v>183.67</c:v>
                 </c:pt>
                 <c:pt idx="755">
-                  <c:v>175.17</c:v>
+                  <c:v>183.79</c:v>
                 </c:pt>
                 <c:pt idx="756">
-                  <c:v>175.21</c:v>
+                  <c:v>183.82</c:v>
                 </c:pt>
                 <c:pt idx="757">
-                  <c:v>175.32</c:v>
+                  <c:v>183.93</c:v>
                 </c:pt>
                 <c:pt idx="758">
-                  <c:v>175.24</c:v>
+                  <c:v>183.85</c:v>
                 </c:pt>
                 <c:pt idx="759">
-                  <c:v>175.37</c:v>
+                  <c:v>183.98</c:v>
                 </c:pt>
                 <c:pt idx="760">
-                  <c:v>175.37</c:v>
+                  <c:v>183.95</c:v>
                 </c:pt>
                 <c:pt idx="761">
-                  <c:v>175.38</c:v>
+                  <c:v>183.94</c:v>
                 </c:pt>
                 <c:pt idx="762">
-                  <c:v>175.42</c:v>
+                  <c:v>183.97</c:v>
                 </c:pt>
                 <c:pt idx="763">
-                  <c:v>175.43</c:v>
+                  <c:v>183.96</c:v>
                 </c:pt>
                 <c:pt idx="764">
-                  <c:v>175.52</c:v>
+                  <c:v>184.04</c:v>
                 </c:pt>
                 <c:pt idx="765">
-                  <c:v>175.6</c:v>
+                  <c:v>184.11</c:v>
                 </c:pt>
                 <c:pt idx="766">
-                  <c:v>175.52</c:v>
+                  <c:v>184.03</c:v>
                 </c:pt>
                 <c:pt idx="767">
-                  <c:v>175.59</c:v>
+                  <c:v>184.08</c:v>
                 </c:pt>
                 <c:pt idx="768">
-                  <c:v>175.61</c:v>
+                  <c:v>184.12</c:v>
                 </c:pt>
                 <c:pt idx="769">
-                  <c:v>175.68</c:v>
+                  <c:v>184.15</c:v>
                 </c:pt>
                 <c:pt idx="770">
-                  <c:v>175.69</c:v>
+                  <c:v>184.14</c:v>
                 </c:pt>
                 <c:pt idx="771">
-                  <c:v>175.74</c:v>
+                  <c:v>184.17</c:v>
                 </c:pt>
                 <c:pt idx="772">
-                  <c:v>175.88</c:v>
+                  <c:v>184.3</c:v>
                 </c:pt>
                 <c:pt idx="773">
-                  <c:v>175.73</c:v>
+                  <c:v>184.15</c:v>
                 </c:pt>
                 <c:pt idx="774">
-                  <c:v>175.77</c:v>
+                  <c:v>184.18</c:v>
                 </c:pt>
                 <c:pt idx="775">
-                  <c:v>175.87</c:v>
+                  <c:v>184.28</c:v>
                 </c:pt>
                 <c:pt idx="776">
-                  <c:v>175.75</c:v>
+                  <c:v>184.16</c:v>
                 </c:pt>
                 <c:pt idx="777">
-                  <c:v>175.82</c:v>
+                  <c:v>184.18</c:v>
                 </c:pt>
                 <c:pt idx="778">
-                  <c:v>175.84</c:v>
+                  <c:v>184.23</c:v>
                 </c:pt>
                 <c:pt idx="779">
-                  <c:v>175.97</c:v>
+                  <c:v>184.34</c:v>
                 </c:pt>
                 <c:pt idx="780">
-                  <c:v>175.84</c:v>
+                  <c:v>184.21</c:v>
                 </c:pt>
                 <c:pt idx="781">
-                  <c:v>175.97</c:v>
+                  <c:v>184.35</c:v>
                 </c:pt>
                 <c:pt idx="782">
-                  <c:v>175.97</c:v>
+                  <c:v>184.31</c:v>
                 </c:pt>
                 <c:pt idx="783">
-                  <c:v>176.06</c:v>
+                  <c:v>184.41</c:v>
                 </c:pt>
                 <c:pt idx="784">
-                  <c:v>175.93</c:v>
+                  <c:v>184.29</c:v>
                 </c:pt>
                 <c:pt idx="785">
-                  <c:v>176.11</c:v>
+                  <c:v>184.45</c:v>
                 </c:pt>
                 <c:pt idx="786">
-                  <c:v>176.12</c:v>
+                  <c:v>184.42</c:v>
                 </c:pt>
                 <c:pt idx="787">
-                  <c:v>176.08</c:v>
+                  <c:v>184.4</c:v>
                 </c:pt>
                 <c:pt idx="788">
-                  <c:v>176.08</c:v>
+                  <c:v>184.4</c:v>
                 </c:pt>
                 <c:pt idx="789">
-                  <c:v>176.12</c:v>
+                  <c:v>184.45</c:v>
                 </c:pt>
                 <c:pt idx="790">
-                  <c:v>176.2</c:v>
+                  <c:v>184.5</c:v>
                 </c:pt>
                 <c:pt idx="791">
-                  <c:v>176.18</c:v>
+                  <c:v>184.49</c:v>
                 </c:pt>
                 <c:pt idx="792">
-                  <c:v>176.17</c:v>
+                  <c:v>184.47</c:v>
                 </c:pt>
                 <c:pt idx="793">
-                  <c:v>176.25</c:v>
+                  <c:v>184.54</c:v>
                 </c:pt>
                 <c:pt idx="794">
-                  <c:v>176.27</c:v>
+                  <c:v>184.56</c:v>
                 </c:pt>
                 <c:pt idx="795">
-                  <c:v>176.17</c:v>
+                  <c:v>184.43</c:v>
                 </c:pt>
                 <c:pt idx="796">
-                  <c:v>176.34</c:v>
+                  <c:v>184.61</c:v>
                 </c:pt>
                 <c:pt idx="797">
-                  <c:v>176.43</c:v>
+                  <c:v>184.7</c:v>
                 </c:pt>
                 <c:pt idx="798">
-                  <c:v>176.46</c:v>
+                  <c:v>184.71</c:v>
                 </c:pt>
                 <c:pt idx="799">
-                  <c:v>176.48</c:v>
+                  <c:v>184.72</c:v>
                 </c:pt>
                 <c:pt idx="800">
-                  <c:v>176.45</c:v>
+                  <c:v>184.7</c:v>
                 </c:pt>
                 <c:pt idx="801">
-                  <c:v>176.5</c:v>
+                  <c:v>184.75</c:v>
                 </c:pt>
                 <c:pt idx="802">
-                  <c:v>176.48</c:v>
+                  <c:v>184.74</c:v>
                 </c:pt>
                 <c:pt idx="803">
-                  <c:v>176.44</c:v>
+                  <c:v>184.69</c:v>
                 </c:pt>
                 <c:pt idx="804">
-                  <c:v>176.42</c:v>
+                  <c:v>184.68</c:v>
                 </c:pt>
                 <c:pt idx="805">
-                  <c:v>176.49</c:v>
+                  <c:v>184.74</c:v>
                 </c:pt>
                 <c:pt idx="806">
-                  <c:v>176.52</c:v>
+                  <c:v>184.74</c:v>
                 </c:pt>
                 <c:pt idx="807">
-                  <c:v>176.59</c:v>
+                  <c:v>184.81</c:v>
                 </c:pt>
                 <c:pt idx="808">
-                  <c:v>176.52</c:v>
+                  <c:v>184.73</c:v>
                 </c:pt>
                 <c:pt idx="809">
-                  <c:v>176.6</c:v>
+                  <c:v>184.81</c:v>
                 </c:pt>
                 <c:pt idx="810">
-                  <c:v>176.59</c:v>
+                  <c:v>184.81</c:v>
                 </c:pt>
                 <c:pt idx="811">
-                  <c:v>176.69</c:v>
+                  <c:v>184.93</c:v>
                 </c:pt>
                 <c:pt idx="812">
-                  <c:v>176.66</c:v>
+                  <c:v>184.91</c:v>
                 </c:pt>
                 <c:pt idx="813">
-                  <c:v>176.62</c:v>
+                  <c:v>184.86</c:v>
                 </c:pt>
                 <c:pt idx="814">
-                  <c:v>176.7</c:v>
+                  <c:v>184.95</c:v>
                 </c:pt>
                 <c:pt idx="815">
-                  <c:v>176.71</c:v>
+                  <c:v>184.92</c:v>
                 </c:pt>
                 <c:pt idx="816">
-                  <c:v>176.75</c:v>
+                  <c:v>184.95</c:v>
                 </c:pt>
                 <c:pt idx="817">
-                  <c:v>176.81</c:v>
+                  <c:v>184.99</c:v>
                 </c:pt>
                 <c:pt idx="818">
-                  <c:v>176.86</c:v>
+                  <c:v>185.04</c:v>
                 </c:pt>
                 <c:pt idx="819">
-                  <c:v>176.87</c:v>
+                  <c:v>185.02</c:v>
                 </c:pt>
                 <c:pt idx="820">
-                  <c:v>176.9</c:v>
+                  <c:v>185.04</c:v>
                 </c:pt>
                 <c:pt idx="821">
-                  <c:v>176.87</c:v>
+                  <c:v>185.01</c:v>
                 </c:pt>
                 <c:pt idx="822">
-                  <c:v>176.91</c:v>
+                  <c:v>185.03</c:v>
                 </c:pt>
                 <c:pt idx="823">
-                  <c:v>176.84</c:v>
+                  <c:v>184.96</c:v>
                 </c:pt>
                 <c:pt idx="824">
-                  <c:v>176.92</c:v>
+                  <c:v>185.03</c:v>
                 </c:pt>
                 <c:pt idx="825">
-                  <c:v>176.97</c:v>
+                  <c:v>185.05</c:v>
                 </c:pt>
                 <c:pt idx="826">
-                  <c:v>177.01</c:v>
+                  <c:v>185.08</c:v>
                 </c:pt>
                 <c:pt idx="827">
-                  <c:v>176.98</c:v>
+                  <c:v>185.07</c:v>
                 </c:pt>
                 <c:pt idx="828">
-                  <c:v>177.08</c:v>
+                  <c:v>185.14</c:v>
                 </c:pt>
                 <c:pt idx="829">
-                  <c:v>177.14</c:v>
+                  <c:v>185.18</c:v>
                 </c:pt>
                 <c:pt idx="830">
-                  <c:v>177.08</c:v>
+                  <c:v>185.12</c:v>
                 </c:pt>
                 <c:pt idx="831">
-                  <c:v>177.18</c:v>
+                  <c:v>185.21</c:v>
                 </c:pt>
                 <c:pt idx="832">
-                  <c:v>177.2</c:v>
+                  <c:v>185.2</c:v>
                 </c:pt>
                 <c:pt idx="833">
-                  <c:v>177.17</c:v>
+                  <c:v>185.16</c:v>
                 </c:pt>
                 <c:pt idx="834">
-                  <c:v>177.17</c:v>
+                  <c:v>185.12</c:v>
                 </c:pt>
                 <c:pt idx="835">
-                  <c:v>177.21</c:v>
+                  <c:v>185.11</c:v>
                 </c:pt>
                 <c:pt idx="836">
-                  <c:v>177.29</c:v>
+                  <c:v>185.21</c:v>
                 </c:pt>
                 <c:pt idx="837">
-                  <c:v>177.38</c:v>
+                  <c:v>185.32</c:v>
                 </c:pt>
                 <c:pt idx="838">
-                  <c:v>177.45</c:v>
+                  <c:v>185.37</c:v>
                 </c:pt>
                 <c:pt idx="839">
-                  <c:v>177.46</c:v>
+                  <c:v>185.39</c:v>
                 </c:pt>
                 <c:pt idx="840">
-                  <c:v>177.45</c:v>
+                  <c:v>185.39</c:v>
                 </c:pt>
                 <c:pt idx="841">
-                  <c:v>177.43</c:v>
+                  <c:v>185.34</c:v>
                 </c:pt>
                 <c:pt idx="842">
-                  <c:v>177.42</c:v>
+                  <c:v>185.32</c:v>
                 </c:pt>
                 <c:pt idx="843">
-                  <c:v>177.52</c:v>
+                  <c:v>185.42</c:v>
                 </c:pt>
                 <c:pt idx="844">
-                  <c:v>177.46</c:v>
+                  <c:v>185.35</c:v>
                 </c:pt>
                 <c:pt idx="845">
-                  <c:v>177.58</c:v>
+                  <c:v>185.45</c:v>
                 </c:pt>
                 <c:pt idx="846">
-                  <c:v>177.58</c:v>
+                  <c:v>185.47</c:v>
                 </c:pt>
                 <c:pt idx="847">
-                  <c:v>177.77</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="848">
-                  <c:v>177.5</c:v>
+                  <c:v>185.37</c:v>
                 </c:pt>
                 <c:pt idx="849">
-                  <c:v>177.68</c:v>
+                  <c:v>185.53</c:v>
                 </c:pt>
                 <c:pt idx="850">
-                  <c:v>177.68</c:v>
+                  <c:v>185.52</c:v>
                 </c:pt>
                 <c:pt idx="851">
-                  <c:v>177.74</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="852">
-                  <c:v>177.68</c:v>
+                  <c:v>185.53</c:v>
                 </c:pt>
                 <c:pt idx="853">
-                  <c:v>177.75</c:v>
+                  <c:v>185.62</c:v>
                 </c:pt>
                 <c:pt idx="854">
-                  <c:v>177.77</c:v>
+                  <c:v>185.62</c:v>
                 </c:pt>
                 <c:pt idx="855">
-                  <c:v>177.87</c:v>
+                  <c:v>185.72</c:v>
                 </c:pt>
                 <c:pt idx="856">
-                  <c:v>177.84</c:v>
+                  <c:v>185.69</c:v>
                 </c:pt>
                 <c:pt idx="857">
-                  <c:v>177.77</c:v>
+                  <c:v>185.63</c:v>
                 </c:pt>
                 <c:pt idx="858">
-                  <c:v>177.91</c:v>
+                  <c:v>185.76</c:v>
                 </c:pt>
                 <c:pt idx="859">
-                  <c:v>177.81</c:v>
+                  <c:v>185.69</c:v>
                 </c:pt>
                 <c:pt idx="860">
-                  <c:v>177.85</c:v>
+                  <c:v>185.71</c:v>
                 </c:pt>
                 <c:pt idx="861">
-                  <c:v>177.84</c:v>
+                  <c:v>185.69</c:v>
                 </c:pt>
                 <c:pt idx="862">
-                  <c:v>177.94</c:v>
+                  <c:v>185.77</c:v>
                 </c:pt>
                 <c:pt idx="863">
-                  <c:v>177.95</c:v>
+                  <c:v>185.78</c:v>
                 </c:pt>
                 <c:pt idx="864">
-                  <c:v>177.96</c:v>
+                  <c:v>185.77</c:v>
                 </c:pt>
                 <c:pt idx="865">
-                  <c:v>178.02</c:v>
+                  <c:v>185.8</c:v>
                 </c:pt>
                 <c:pt idx="866">
-                  <c:v>178.02</c:v>
+                  <c:v>185.81</c:v>
                 </c:pt>
                 <c:pt idx="867">
-                  <c:v>178.08</c:v>
+                  <c:v>185.85</c:v>
                 </c:pt>
                 <c:pt idx="868">
-                  <c:v>178.09</c:v>
+                  <c:v>185.84</c:v>
                 </c:pt>
                 <c:pt idx="869">
-                  <c:v>178.09</c:v>
+                  <c:v>185.84</c:v>
                 </c:pt>
                 <c:pt idx="870">
-                  <c:v>178.21</c:v>
+                  <c:v>185.95</c:v>
                 </c:pt>
                 <c:pt idx="871">
-                  <c:v>178.12</c:v>
+                  <c:v>185.86</c:v>
                 </c:pt>
                 <c:pt idx="872">
-                  <c:v>178.18</c:v>
+                  <c:v>185.88</c:v>
                 </c:pt>
                 <c:pt idx="873">
-                  <c:v>178.31</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="874">
-                  <c:v>178.28</c:v>
+                  <c:v>185.95</c:v>
                 </c:pt>
                 <c:pt idx="875">
-                  <c:v>178.33</c:v>
+                  <c:v>185.98</c:v>
                 </c:pt>
                 <c:pt idx="876">
-                  <c:v>178.22</c:v>
+                  <c:v>185.86</c:v>
                 </c:pt>
                 <c:pt idx="877">
-                  <c:v>178.42</c:v>
+                  <c:v>186.05</c:v>
                 </c:pt>
                 <c:pt idx="878">
-                  <c:v>178.44</c:v>
+                  <c:v>186.04</c:v>
                 </c:pt>
                 <c:pt idx="879">
-                  <c:v>178.47</c:v>
+                  <c:v>186.08</c:v>
                 </c:pt>
                 <c:pt idx="880">
-                  <c:v>178.45</c:v>
+                  <c:v>186.05</c:v>
                 </c:pt>
                 <c:pt idx="881">
-                  <c:v>178.46</c:v>
+                  <c:v>186.09</c:v>
                 </c:pt>
                 <c:pt idx="882">
-                  <c:v>178.34</c:v>
+                  <c:v>185.95</c:v>
                 </c:pt>
                 <c:pt idx="883">
-                  <c:v>178.55</c:v>
+                  <c:v>186.15</c:v>
                 </c:pt>
                 <c:pt idx="884">
-                  <c:v>178.49</c:v>
+                  <c:v>186.07</c:v>
                 </c:pt>
                 <c:pt idx="885">
-                  <c:v>178.5</c:v>
+                  <c:v>186.11</c:v>
                 </c:pt>
                 <c:pt idx="886">
-                  <c:v>178.53</c:v>
+                  <c:v>186.15</c:v>
                 </c:pt>
                 <c:pt idx="887">
-                  <c:v>178.45</c:v>
+                  <c:v>186.06</c:v>
                 </c:pt>
                 <c:pt idx="888">
-                  <c:v>178.53</c:v>
+                  <c:v>186.14</c:v>
                 </c:pt>
                 <c:pt idx="889">
-                  <c:v>178.51</c:v>
+                  <c:v>186.09</c:v>
                 </c:pt>
                 <c:pt idx="890">
-                  <c:v>178.63</c:v>
+                  <c:v>186.19</c:v>
                 </c:pt>
                 <c:pt idx="891">
-                  <c:v>178.61</c:v>
+                  <c:v>186.17</c:v>
                 </c:pt>
                 <c:pt idx="892">
-                  <c:v>178.61</c:v>
+                  <c:v>186.16</c:v>
                 </c:pt>
                 <c:pt idx="893">
-                  <c:v>178.6</c:v>
+                  <c:v>186.18</c:v>
                 </c:pt>
                 <c:pt idx="894">
-                  <c:v>178.63</c:v>
+                  <c:v>186.21</c:v>
                 </c:pt>
                 <c:pt idx="895">
-                  <c:v>178.73</c:v>
+                  <c:v>186.33</c:v>
                 </c:pt>
                 <c:pt idx="896">
-                  <c:v>178.54</c:v>
+                  <c:v>186.13</c:v>
                 </c:pt>
                 <c:pt idx="897">
-                  <c:v>178.63</c:v>
+                  <c:v>186.25</c:v>
                 </c:pt>
                 <c:pt idx="898">
-                  <c:v>178.65</c:v>
+                  <c:v>186.27</c:v>
                 </c:pt>
                 <c:pt idx="899">
-                  <c:v>178.68</c:v>
+                  <c:v>186.31</c:v>
                 </c:pt>
                 <c:pt idx="900">
-                  <c:v>178.74</c:v>
+                  <c:v>186.35</c:v>
                 </c:pt>
                 <c:pt idx="901">
-                  <c:v>178.75</c:v>
+                  <c:v>186.36</c:v>
                 </c:pt>
                 <c:pt idx="902">
-                  <c:v>178.77</c:v>
+                  <c:v>186.37</c:v>
                 </c:pt>
                 <c:pt idx="903">
-                  <c:v>178.76</c:v>
+                  <c:v>186.34</c:v>
                 </c:pt>
                 <c:pt idx="904">
-                  <c:v>178.92</c:v>
+                  <c:v>186.48</c:v>
                 </c:pt>
                 <c:pt idx="905">
-                  <c:v>178.89</c:v>
+                  <c:v>186.46</c:v>
                 </c:pt>
                 <c:pt idx="906">
-                  <c:v>178.87</c:v>
+                  <c:v>186.43</c:v>
                 </c:pt>
                 <c:pt idx="907">
-                  <c:v>178.96</c:v>
+                  <c:v>186.52</c:v>
                 </c:pt>
                 <c:pt idx="908">
-                  <c:v>178.95</c:v>
+                  <c:v>186.48</c:v>
                 </c:pt>
                 <c:pt idx="909">
-                  <c:v>178.87</c:v>
+                  <c:v>186.39</c:v>
                 </c:pt>
                 <c:pt idx="910">
-                  <c:v>178.85</c:v>
+                  <c:v>186.4</c:v>
                 </c:pt>
                 <c:pt idx="911">
-                  <c:v>178.99</c:v>
+                  <c:v>186.51</c:v>
                 </c:pt>
                 <c:pt idx="912">
-                  <c:v>179.01</c:v>
+                  <c:v>186.51</c:v>
                 </c:pt>
                 <c:pt idx="913">
-                  <c:v>179.03</c:v>
+                  <c:v>186.53</c:v>
                 </c:pt>
                 <c:pt idx="914">
-                  <c:v>179.04</c:v>
+                  <c:v>186.52</c:v>
                 </c:pt>
                 <c:pt idx="915">
-                  <c:v>179.12</c:v>
+                  <c:v>186.58</c:v>
                 </c:pt>
                 <c:pt idx="916">
-                  <c:v>179.12</c:v>
+                  <c:v>186.59</c:v>
                 </c:pt>
                 <c:pt idx="917">
-                  <c:v>179</c:v>
+                  <c:v>186.47</c:v>
                 </c:pt>
                 <c:pt idx="918">
-                  <c:v>179.13</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="919">
-                  <c:v>179.17</c:v>
+                  <c:v>186.64</c:v>
                 </c:pt>
                 <c:pt idx="920">
-                  <c:v>179.2</c:v>
+                  <c:v>186.65</c:v>
                 </c:pt>
                 <c:pt idx="921">
-                  <c:v>179.25</c:v>
+                  <c:v>186.67</c:v>
                 </c:pt>
                 <c:pt idx="922">
-                  <c:v>179.3</c:v>
+                  <c:v>186.72</c:v>
                 </c:pt>
                 <c:pt idx="923">
-                  <c:v>179.26</c:v>
+                  <c:v>186.67</c:v>
                 </c:pt>
                 <c:pt idx="924">
-                  <c:v>179.24</c:v>
+                  <c:v>186.61</c:v>
                 </c:pt>
                 <c:pt idx="925">
-                  <c:v>179.28</c:v>
+                  <c:v>186.65</c:v>
                 </c:pt>
                 <c:pt idx="926">
-                  <c:v>179.27</c:v>
+                  <c:v>186.64</c:v>
                 </c:pt>
                 <c:pt idx="927">
-                  <c:v>179.49</c:v>
+                  <c:v>186.82</c:v>
                 </c:pt>
                 <c:pt idx="928">
-                  <c:v>179.35</c:v>
+                  <c:v>186.7</c:v>
                 </c:pt>
                 <c:pt idx="929">
-                  <c:v>179.39</c:v>
+                  <c:v>186.72</c:v>
                 </c:pt>
                 <c:pt idx="930">
-                  <c:v>179.4</c:v>
+                  <c:v>186.73</c:v>
                 </c:pt>
                 <c:pt idx="931">
-                  <c:v>179.35</c:v>
+                  <c:v>186.67</c:v>
                 </c:pt>
                 <c:pt idx="932">
-                  <c:v>179.43</c:v>
+                  <c:v>186.76</c:v>
                 </c:pt>
                 <c:pt idx="933">
-                  <c:v>179.55</c:v>
+                  <c:v>186.86</c:v>
                 </c:pt>
                 <c:pt idx="934">
-                  <c:v>179.54</c:v>
+                  <c:v>186.84</c:v>
                 </c:pt>
                 <c:pt idx="935">
-                  <c:v>179.52</c:v>
+                  <c:v>186.82</c:v>
                 </c:pt>
                 <c:pt idx="936">
-                  <c:v>179.56</c:v>
+                  <c:v>186.83</c:v>
                 </c:pt>
                 <c:pt idx="937">
-                  <c:v>179.62</c:v>
+                  <c:v>186.9</c:v>
                 </c:pt>
                 <c:pt idx="938">
-                  <c:v>179.59</c:v>
+                  <c:v>186.86</c:v>
                 </c:pt>
                 <c:pt idx="939">
-                  <c:v>179.62</c:v>
+                  <c:v>186.9</c:v>
                 </c:pt>
                 <c:pt idx="940">
-                  <c:v>179.59</c:v>
+                  <c:v>186.87</c:v>
                 </c:pt>
                 <c:pt idx="941">
-                  <c:v>179.71</c:v>
+                  <c:v>186.99</c:v>
                 </c:pt>
                 <c:pt idx="942">
-                  <c:v>179.72</c:v>
+                  <c:v>186.98</c:v>
                 </c:pt>
                 <c:pt idx="943">
-                  <c:v>179.62</c:v>
+                  <c:v>186.92</c:v>
                 </c:pt>
                 <c:pt idx="944">
-                  <c:v>179.66</c:v>
+                  <c:v>186.93</c:v>
                 </c:pt>
                 <c:pt idx="945">
-                  <c:v>179.72</c:v>
+                  <c:v>186.98</c:v>
                 </c:pt>
                 <c:pt idx="946">
-                  <c:v>179.71</c:v>
+                  <c:v>186.99</c:v>
                 </c:pt>
                 <c:pt idx="947">
-                  <c:v>179.75</c:v>
+                  <c:v>187.01</c:v>
                 </c:pt>
                 <c:pt idx="948">
-                  <c:v>179.76</c:v>
+                  <c:v>187.02</c:v>
                 </c:pt>
                 <c:pt idx="949">
-                  <c:v>179.79</c:v>
+                  <c:v>187.04</c:v>
                 </c:pt>
                 <c:pt idx="950">
-                  <c:v>179.77</c:v>
+                  <c:v>187.04</c:v>
                 </c:pt>
                 <c:pt idx="951">
-                  <c:v>179.91</c:v>
+                  <c:v>187.16</c:v>
                 </c:pt>
                 <c:pt idx="952">
-                  <c:v>179.88</c:v>
+                  <c:v>187.13</c:v>
                 </c:pt>
                 <c:pt idx="953">
-                  <c:v>179.79</c:v>
+                  <c:v>187.06</c:v>
                 </c:pt>
                 <c:pt idx="954">
-                  <c:v>179.81</c:v>
+                  <c:v>187.04</c:v>
                 </c:pt>
                 <c:pt idx="955">
-                  <c:v>179.87</c:v>
+                  <c:v>187.13</c:v>
                 </c:pt>
                 <c:pt idx="956">
-                  <c:v>179.9</c:v>
+                  <c:v>187.18</c:v>
                 </c:pt>
                 <c:pt idx="957">
-                  <c:v>179.92</c:v>
+                  <c:v>187.18</c:v>
                 </c:pt>
                 <c:pt idx="958">
-                  <c:v>179.99</c:v>
+                  <c:v>187.24</c:v>
                 </c:pt>
                 <c:pt idx="959">
-                  <c:v>179.89</c:v>
+                  <c:v>187.17</c:v>
                 </c:pt>
                 <c:pt idx="960">
-                  <c:v>180.05</c:v>
+                  <c:v>187.28</c:v>
                 </c:pt>
                 <c:pt idx="961">
-                  <c:v>180.07</c:v>
+                  <c:v>187.3</c:v>
                 </c:pt>
                 <c:pt idx="962">
-                  <c:v>179.89</c:v>
+                  <c:v>187.1</c:v>
                 </c:pt>
                 <c:pt idx="963">
-                  <c:v>180.08</c:v>
+                  <c:v>187.29</c:v>
                 </c:pt>
                 <c:pt idx="964">
-                  <c:v>179.95</c:v>
+                  <c:v>187.15</c:v>
                 </c:pt>
                 <c:pt idx="965">
-                  <c:v>180.01</c:v>
+                  <c:v>187.23</c:v>
                 </c:pt>
                 <c:pt idx="966">
-                  <c:v>180.01</c:v>
+                  <c:v>187.2</c:v>
                 </c:pt>
                 <c:pt idx="967">
-                  <c:v>180.13</c:v>
+                  <c:v>187.34</c:v>
                 </c:pt>
                 <c:pt idx="968">
-                  <c:v>180.03</c:v>
+                  <c:v>187.2</c:v>
                 </c:pt>
                 <c:pt idx="969">
-                  <c:v>180.18</c:v>
+                  <c:v>187.35</c:v>
                 </c:pt>
                 <c:pt idx="970">
-                  <c:v>180.15</c:v>
+                  <c:v>187.31</c:v>
                 </c:pt>
                 <c:pt idx="971">
-                  <c:v>180.2</c:v>
+                  <c:v>187.36</c:v>
                 </c:pt>
                 <c:pt idx="972">
-                  <c:v>180.27</c:v>
+                  <c:v>187.44</c:v>
                 </c:pt>
                 <c:pt idx="973">
-                  <c:v>180.25</c:v>
+                  <c:v>187.42</c:v>
                 </c:pt>
                 <c:pt idx="974">
-                  <c:v>180.19</c:v>
+                  <c:v>187.36</c:v>
                 </c:pt>
                 <c:pt idx="975">
-                  <c:v>180.3</c:v>
+                  <c:v>187.47</c:v>
                 </c:pt>
                 <c:pt idx="976">
-                  <c:v>180.33</c:v>
+                  <c:v>187.49</c:v>
                 </c:pt>
                 <c:pt idx="977">
-                  <c:v>180.36</c:v>
+                  <c:v>187.53</c:v>
                 </c:pt>
                 <c:pt idx="978">
-                  <c:v>180.38</c:v>
+                  <c:v>187.55</c:v>
                 </c:pt>
                 <c:pt idx="979">
-                  <c:v>180.31</c:v>
+                  <c:v>187.46</c:v>
                 </c:pt>
                 <c:pt idx="980">
-                  <c:v>180.46</c:v>
+                  <c:v>187.59</c:v>
                 </c:pt>
                 <c:pt idx="981">
-                  <c:v>180.36</c:v>
+                  <c:v>187.49</c:v>
                 </c:pt>
                 <c:pt idx="982">
-                  <c:v>180.36</c:v>
+                  <c:v>187.47</c:v>
                 </c:pt>
                 <c:pt idx="983">
-                  <c:v>180.38</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
                 <c:pt idx="984">
-                  <c:v>180.38</c:v>
+                  <c:v>187.49</c:v>
                 </c:pt>
                 <c:pt idx="985">
-                  <c:v>180.41</c:v>
+                  <c:v>187.53</c:v>
                 </c:pt>
                 <c:pt idx="986">
-                  <c:v>180.46</c:v>
+                  <c:v>187.52</c:v>
                 </c:pt>
                 <c:pt idx="987">
-                  <c:v>180.48</c:v>
+                  <c:v>187.56</c:v>
                 </c:pt>
                 <c:pt idx="988">
-                  <c:v>180.58</c:v>
+                  <c:v>187.63</c:v>
                 </c:pt>
                 <c:pt idx="989">
-                  <c:v>180.55</c:v>
+                  <c:v>187.61</c:v>
                 </c:pt>
                 <c:pt idx="990">
-                  <c:v>180.65</c:v>
+                  <c:v>187.7</c:v>
                 </c:pt>
                 <c:pt idx="991">
-                  <c:v>180.62</c:v>
+                  <c:v>187.66</c:v>
                 </c:pt>
                 <c:pt idx="992">
-                  <c:v>180.63</c:v>
+                  <c:v>187.67</c:v>
                 </c:pt>
                 <c:pt idx="993">
-                  <c:v>180.71</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="994">
-                  <c:v>180.67</c:v>
+                  <c:v>187.69</c:v>
                 </c:pt>
                 <c:pt idx="995">
-                  <c:v>180.6</c:v>
+                  <c:v>187.64</c:v>
                 </c:pt>
                 <c:pt idx="996">
-                  <c:v>180.74</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="997">
-                  <c:v>180.8</c:v>
+                  <c:v>187.81</c:v>
                 </c:pt>
                 <c:pt idx="998">
-                  <c:v>180.82</c:v>
+                  <c:v>187.82</c:v>
                 </c:pt>
                 <c:pt idx="999">
-                  <c:v>180.73</c:v>
+                  <c:v>187.73</c:v>
                 </c:pt>
                 <c:pt idx="1000">
-                  <c:v>180.73</c:v>
+                  <c:v>187.74</c:v>
                 </c:pt>
                 <c:pt idx="1001">
-                  <c:v>180.91</c:v>
+                  <c:v>187.91</c:v>
                 </c:pt>
                 <c:pt idx="1002">
-                  <c:v>180.85</c:v>
+                  <c:v>187.85</c:v>
                 </c:pt>
                 <c:pt idx="1003">
-                  <c:v>180.87</c:v>
+                  <c:v>187.86</c:v>
                 </c:pt>
                 <c:pt idx="1004">
-                  <c:v>180.93</c:v>
+                  <c:v>187.93</c:v>
                 </c:pt>
                 <c:pt idx="1005">
-                  <c:v>180.98</c:v>
+                  <c:v>187.98</c:v>
                 </c:pt>
                 <c:pt idx="1006">
-                  <c:v>180.92</c:v>
+                  <c:v>187.94</c:v>
                 </c:pt>
                 <c:pt idx="1007">
-                  <c:v>180.93</c:v>
+                  <c:v>187.96</c:v>
                 </c:pt>
                 <c:pt idx="1008">
-                  <c:v>180.87</c:v>
+                  <c:v>187.87</c:v>
                 </c:pt>
                 <c:pt idx="1009">
-                  <c:v>180.97</c:v>
+                  <c:v>187.94</c:v>
                 </c:pt>
                 <c:pt idx="1010">
-                  <c:v>180.92</c:v>
+                  <c:v>187.89</c:v>
                 </c:pt>
                 <c:pt idx="1011">
-                  <c:v>181</c:v>
+                  <c:v>187.99</c:v>
                 </c:pt>
                 <c:pt idx="1012">
-                  <c:v>181.02</c:v>
+                  <c:v>187.99</c:v>
                 </c:pt>
                 <c:pt idx="1013">
-                  <c:v>181.11</c:v>
+                  <c:v>188.1</c:v>
                 </c:pt>
                 <c:pt idx="1014">
-                  <c:v>181.15</c:v>
+                  <c:v>188.11</c:v>
                 </c:pt>
                 <c:pt idx="1015">
-                  <c:v>181.18</c:v>
+                  <c:v>188.11</c:v>
                 </c:pt>
                 <c:pt idx="1016">
-                  <c:v>181.23</c:v>
+                  <c:v>188.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6341,7 +6343,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1B4-45D3-A84C-26DCD2286318}"/>
+              <c16:uniqueId val="{00000003-F1B4-45D3-A84C-26DCD2286318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6362,7 +6364,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -12531,7 +12536,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -18684,15 +18691,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mid</c:v>
+                  <c:v>side</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18700,7 +18707,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -21783,3064 +21793,3064 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$2:$E$1019</c15:sqref>
+                    <c15:sqref>Sheet1!$B$2:$B$1019</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$E$3:$E$1019</c:f>
+              <c:f>Sheet1!$B$3:$B$1019</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1017"/>
                 <c:pt idx="0">
-                  <c:v>66.180000000000007</c:v>
+                  <c:v>60.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.75</c:v>
+                  <c:v>61.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.67</c:v>
+                  <c:v>62.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.430000000000007</c:v>
+                  <c:v>63.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.31</c:v>
+                  <c:v>64.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.849999999999994</c:v>
+                  <c:v>65.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.64</c:v>
+                  <c:v>66.17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.239999999999995</c:v>
+                  <c:v>66.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.86</c:v>
+                  <c:v>67.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.400000000000006</c:v>
+                  <c:v>68.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.22</c:v>
+                  <c:v>68.959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.83</c:v>
+                  <c:v>69.61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.37</c:v>
+                  <c:v>70.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74.88</c:v>
+                  <c:v>70.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.55</c:v>
+                  <c:v>71.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.040000000000006</c:v>
+                  <c:v>72.05</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.739999999999995</c:v>
+                  <c:v>72.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>77.290000000000006</c:v>
+                  <c:v>73.37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77.900000000000006</c:v>
+                  <c:v>74.040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78.52</c:v>
+                  <c:v>74.63</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>79.150000000000006</c:v>
+                  <c:v>75.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>79.569999999999993</c:v>
+                  <c:v>75.78</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>80.2</c:v>
+                  <c:v>76.45</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>80.84</c:v>
+                  <c:v>77.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>81.34</c:v>
+                  <c:v>77.67</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>81.94</c:v>
+                  <c:v>78.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>82.48</c:v>
+                  <c:v>78.84</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>83.04</c:v>
+                  <c:v>79.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>83.55</c:v>
+                  <c:v>80.03</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>84.13</c:v>
+                  <c:v>80.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>84.7</c:v>
+                  <c:v>81.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>85.22</c:v>
+                  <c:v>81.75</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85.74</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86.18</c:v>
+                  <c:v>82.79</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>86.76</c:v>
+                  <c:v>83.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>87.36</c:v>
+                  <c:v>83.98</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>87.82</c:v>
+                  <c:v>84.43</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>88.35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>88.9</c:v>
+                  <c:v>85.52</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>89.38</c:v>
+                  <c:v>86.02</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>89.9</c:v>
+                  <c:v>86.56</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90.4</c:v>
+                  <c:v>87.12</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>90.84</c:v>
+                  <c:v>87.62</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>91.29</c:v>
+                  <c:v>88.07</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>91.8</c:v>
+                  <c:v>88.58</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92.32</c:v>
+                  <c:v>89.12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>92.77</c:v>
+                  <c:v>89.57</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>90.07</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90.51</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>90.95</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>91.45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>92.37</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.85</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>93.23</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="55">
                   <c:v>93.7</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>94.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>94.67</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>95.14</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>95.62</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>96.06</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>96.5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>96.95</c:v>
-                </c:pt>
                 <c:pt idx="56">
-                  <c:v>97.5</c:v>
+                  <c:v>94.22</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>97.82</c:v>
+                  <c:v>94.55</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>98.34</c:v>
+                  <c:v>95.09</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>98.76</c:v>
+                  <c:v>95.47</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>99.21</c:v>
+                  <c:v>95.9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>99.65</c:v>
+                  <c:v>96.33</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>100.27</c:v>
+                  <c:v>96.94</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>100.49</c:v>
+                  <c:v>97.18</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>100.93</c:v>
+                  <c:v>97.62</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>101.39</c:v>
+                  <c:v>98.07</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>101.82</c:v>
+                  <c:v>98.53</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>102.27</c:v>
+                  <c:v>98.94</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>102.71</c:v>
+                  <c:v>99.4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>103.07</c:v>
+                  <c:v>99.74</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>103.54</c:v>
+                  <c:v>100.23</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>103.91</c:v>
+                  <c:v>100.57</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>104.36</c:v>
+                  <c:v>101.02</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>104.63</c:v>
+                  <c:v>101.31</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>105.14</c:v>
+                  <c:v>101.78</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>105.52</c:v>
+                  <c:v>102.17</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>105.88</c:v>
+                  <c:v>102.56</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>106.24</c:v>
+                  <c:v>102.93</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>106.64</c:v>
+                  <c:v>103.31</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>107.12</c:v>
+                  <c:v>103.76</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>107.42</c:v>
+                  <c:v>104.06</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>107.83</c:v>
+                  <c:v>104.44</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>108.21</c:v>
+                  <c:v>104.81</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>108.48</c:v>
+                  <c:v>105.08</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>108.94</c:v>
+                  <c:v>105.49</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>109.3</c:v>
+                  <c:v>105.83</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>109.7</c:v>
+                  <c:v>106.18</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>110.23</c:v>
+                  <c:v>106.7</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>110.45</c:v>
+                  <c:v>106.9</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>110.82</c:v>
+                  <c:v>107.27</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>111.34</c:v>
+                  <c:v>107.82</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>111.61</c:v>
+                  <c:v>108.04</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>111.98</c:v>
+                  <c:v>108.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>112.35</c:v>
+                  <c:v>108.72</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>112.76</c:v>
+                  <c:v>109.11</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>113.15</c:v>
+                  <c:v>109.46</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>113.46</c:v>
+                  <c:v>109.77</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>113.81</c:v>
+                  <c:v>110.11</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>114.38</c:v>
+                  <c:v>110.66</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>114.53</c:v>
+                  <c:v>110.8</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>114.81</c:v>
+                  <c:v>111.05</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>115.14</c:v>
+                  <c:v>111.36</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>115.47</c:v>
+                  <c:v>111.7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>115.86</c:v>
+                  <c:v>112.08</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>116.24</c:v>
+                  <c:v>112.45</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>116.48</c:v>
+                  <c:v>112.68</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>116.84</c:v>
+                  <c:v>113.02</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>117.3</c:v>
+                  <c:v>113.39</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>117.64</c:v>
+                  <c:v>113.72</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>117.86</c:v>
+                  <c:v>113.94</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>118.22</c:v>
+                  <c:v>114.24</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>118.58</c:v>
+                  <c:v>114.6</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>118.85</c:v>
+                  <c:v>114.86</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>119.16</c:v>
+                  <c:v>115.16</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>119.46</c:v>
+                  <c:v>115.46</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>119.72</c:v>
+                  <c:v>115.7</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>120.09</c:v>
+                  <c:v>116.02</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>120.34</c:v>
+                  <c:v>116.28</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>120.78</c:v>
+                  <c:v>116.64</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>121.16</c:v>
+                  <c:v>116.97</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>121.45</c:v>
+                  <c:v>117.25</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121.8</c:v>
+                  <c:v>117.58</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122.06</c:v>
+                  <c:v>117.84</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>122.4</c:v>
+                  <c:v>118.13</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>122.7</c:v>
+                  <c:v>118.41</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>122.99</c:v>
+                  <c:v>118.63</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>123.35</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>123.51</c:v>
+                  <c:v>119.19</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>123.83</c:v>
+                  <c:v>119.48</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>124.18</c:v>
+                  <c:v>119.82</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>124.42</c:v>
+                  <c:v>120.01</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>124.72</c:v>
+                  <c:v>120.32</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>125.06</c:v>
+                  <c:v>120.65</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>125.39</c:v>
+                  <c:v>120.95</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>125.59</c:v>
+                  <c:v>121.14</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>125.95</c:v>
+                  <c:v>121.49</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>126.18</c:v>
+                  <c:v>121.7</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>126.42</c:v>
+                  <c:v>121.88</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>126.82</c:v>
+                  <c:v>122.32</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>127.07</c:v>
+                  <c:v>122.55</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>127.3</c:v>
+                  <c:v>122.75</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>127.62</c:v>
+                  <c:v>123.03</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>127.95</c:v>
+                  <c:v>123.36</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>128.25</c:v>
+                  <c:v>123.62</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>128.53</c:v>
+                  <c:v>123.88</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>128.71</c:v>
+                  <c:v>124.01</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129.04</c:v>
+                  <c:v>124.3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>129.38999999999999</c:v>
+                  <c:v>124.65</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>129.56</c:v>
+                  <c:v>124.78</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>129.88999999999999</c:v>
+                  <c:v>125.12</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>130.1</c:v>
+                  <c:v>125.28</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>130.41</c:v>
+                  <c:v>125.58</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>130.69</c:v>
+                  <c:v>125.83</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>130.96</c:v>
+                  <c:v>126.07</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>131.32</c:v>
+                  <c:v>126.4</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>131.38</c:v>
+                  <c:v>126.45</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>131.74</c:v>
+                  <c:v>126.77</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>132.03</c:v>
+                  <c:v>127.05</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>132.25</c:v>
+                  <c:v>127.25</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>132.5</c:v>
+                  <c:v>127.48</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>132.68</c:v>
+                  <c:v>127.65</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>133.06</c:v>
+                  <c:v>128.02000000000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>133.22999999999999</c:v>
+                  <c:v>128.15</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>133.5</c:v>
+                  <c:v>128.41999999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>133.82</c:v>
+                  <c:v>128.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>134.07</c:v>
+                  <c:v>128.91999999999999</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>134.29</c:v>
+                  <c:v>129.13</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>134.52000000000001</c:v>
+                  <c:v>129.33000000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>134.69999999999999</c:v>
+                  <c:v>129.44999999999999</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>135.02000000000001</c:v>
+                  <c:v>129.75</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>135.24</c:v>
+                  <c:v>129.97999999999999</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>135.53</c:v>
+                  <c:v>130.22999999999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>135.77000000000001</c:v>
+                  <c:v>130.44999999999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>135.94</c:v>
+                  <c:v>130.58000000000001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>136.18</c:v>
+                  <c:v>130.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>136.32</c:v>
+                  <c:v>130.97999999999999</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>136.62</c:v>
+                  <c:v>131.27000000000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>136.78</c:v>
+                  <c:v>131.41999999999999</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>137.05000000000001</c:v>
+                  <c:v>131.66</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>137.47</c:v>
+                  <c:v>132.06</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>137.55000000000001</c:v>
+                  <c:v>132.09</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>137.78</c:v>
+                  <c:v>132.29</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>137.96</c:v>
+                  <c:v>132.44999999999999</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>138.25</c:v>
+                  <c:v>132.72999999999999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>138.47999999999999</c:v>
+                  <c:v>132.94</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>138.69999999999999</c:v>
+                  <c:v>133.12</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>138.88999999999999</c:v>
+                  <c:v>133.27000000000001</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>139.13999999999999</c:v>
+                  <c:v>133.49</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>139.36000000000001</c:v>
+                  <c:v>133.68</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>139.51</c:v>
+                  <c:v>133.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>139.77000000000001</c:v>
+                  <c:v>134.02000000000001</c:v>
                 </c:pt>
                 <c:pt idx="191">
+                  <c:v>134.26</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>134.47</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>134.66</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>134.79</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>135.04</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>135.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>135.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>135.59</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>135.82</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>135.96</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>136.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>136.26</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>136.4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>136.66</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>136.85</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>137.06</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>137.24</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>137.34</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>137.53</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>137.76</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>137.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>138.03</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>138.26</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>138.41</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>138.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>138.79</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>139.07</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>139.15</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>139.24</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>139.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>139.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>139.78</c:v>
+                </c:pt>
+                <c:pt idx="223">
                   <c:v>140.03</c:v>
                 </c:pt>
-                <c:pt idx="192">
-                  <c:v>140.25</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>140.47999999999999</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>140.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>140.91</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>141.12</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>141.29</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>141.53</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>141.76</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>141.94</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>142.16</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>142.32</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>142.49</c:v>
-                </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="224">
+                  <c:v>140.19</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>140.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>140.5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>140.59</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>140.79</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>140.9</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>141.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>141.26</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>141.38</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>141.56</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>141.71</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>141.87</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>142.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>142.26</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>142.34</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>142.62</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>142.65</c:v>
+                </c:pt>
+                <c:pt idx="241">
                   <c:v>142.79</c:v>
                 </c:pt>
-                <c:pt idx="205">
-                  <c:v>142.99</c:v>
-                </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="242">
+                  <c:v>142.96</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>143.1</c:v>
+                </c:pt>
+                <c:pt idx="244">
                   <c:v>143.22999999999999</c:v>
                 </c:pt>
-                <c:pt idx="207">
-                  <c:v>143.41999999999999</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>143.55000000000001</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>143.78</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>144.01</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>144.12</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>144.31</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>144.57</c:v>
-                </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="245">
+                  <c:v>143.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>143.44</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>143.66</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>143.79</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>143.99</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>144.18</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>144.25</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>144.49</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>144.65</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="254">
+                  <c:v>144.62</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>144.71</c:v>
+                </c:pt>
+                <c:pt idx="256">
                   <c:v>144.91999999999999</c:v>
                 </c:pt>
-                <c:pt idx="216">
-                  <c:v>145.11000000000001</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>145.41</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>145.54</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>145.72</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>145.96</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>146.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>146.33000000000001</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>146.63</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>146.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>146.91</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>147.09</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>147.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>147.43</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>147.55000000000001</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>147.72</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>147.97999999999999</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>148.13999999999999</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>148.33000000000001</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>148.51</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>148.69</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>148.86000000000001</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>149.13</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>149.22999999999999</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>149.52000000000001</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>149.57</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>149.72999999999999</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>149.94</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>150.09</c:v>
-                </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="257">
+                  <c:v>145.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>145.26</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>145.37</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>145.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>145.79</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>145.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>145.93</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>145.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>146.15</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>146.29</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>146.34</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>146.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>146.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>146.75</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>146.97</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>147.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>147.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>147.31</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>147.51</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>147.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>147.68</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>147.87</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>147.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>148.06</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>148.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>148.56</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>148.72</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>148.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>148.74</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>148.88</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>148.99</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>149.06</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>149.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>149.28</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>149.37</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>149.49</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>149.6</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>149.76</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>149.81</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>149.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>150.07</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>150.19</c:v>
+                </c:pt>
+                <c:pt idx="299">
                   <c:v>150.26</c:v>
                 </c:pt>
-                <c:pt idx="245">
-                  <c:v>150.4</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>150.51</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>150.75</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>150.9</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>151.13</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>151.33000000000001</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>151.44</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>151.68</c:v>
-                </c:pt>
-                <c:pt idx="253">
+                <c:pt idx="300">
+                  <c:v>150.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>150.65</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>150.65</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>150.78</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>150.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>151.09</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>151.18</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>151.34</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>151.47</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>151.51</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>151.6</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>151.75</c:v>
+                </c:pt>
+                <c:pt idx="313">
                   <c:v>151.86000000000001</c:v>
                 </c:pt>
-                <c:pt idx="254">
-                  <c:v>151.85</c:v>
-                </c:pt>
-                <c:pt idx="255">
+                <c:pt idx="314">
                   <c:v>151.93</c:v>
                 </c:pt>
-                <c:pt idx="256">
-                  <c:v>152.13</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>152.22</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>152.5</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>152.59</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>152.75</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>153.1</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>153.22999999999999</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>153.29</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>153.37</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>153.55000000000001</c:v>
-                </c:pt>
-                <c:pt idx="266">
+                <c:pt idx="315">
+                  <c:v>151.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>152.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>152.21</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>152.26</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>152.28</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>152.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>152.51</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>152.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>152.71</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>152.81</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>152.91</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>152.99</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>153.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>153.22</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>153.24</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>153.44</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>153.57</c:v>
+                </c:pt>
+                <c:pt idx="333">
                   <c:v>153.66</c:v>
                 </c:pt>
-                <c:pt idx="267">
-                  <c:v>153.74</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>154.09</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>154.22</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>154.22</c:v>
-                </c:pt>
-                <c:pt idx="271">
+                <c:pt idx="334">
+                  <c:v>153.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>153.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>153.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>153.96</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>154.06</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>154.16</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>154.28</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>154.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="342">
                   <c:v>154.47</c:v>
                 </c:pt>
-                <c:pt idx="272">
-                  <c:v>154.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>154.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="274">
+                <c:pt idx="343">
+                  <c:v>154.57</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>154.69</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>154.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>154.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="347">
                   <c:v>154.86000000000001</c:v>
                 </c:pt>
-                <c:pt idx="275">
-                  <c:v>155.1</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>155.18</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>155.31</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>155.5</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>155.59</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>155.72</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>156.07</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>156.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>156.47999999999999</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>156.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>156.53</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>156.71</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>156.84</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>156.94</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>157.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="290">
+                <c:pt idx="348">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>155.06</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>155.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>155.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>155.22</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>155.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>155.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>155.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>155.6</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>155.66</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>155.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>156.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>156.03</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>156.06</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>156.19</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>156.22</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>156.31</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>156.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>156.4</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>156.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>156.65</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>156.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>156.82</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>156.85</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>157.03</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>157.16</c:v>
+                </c:pt>
+                <c:pt idx="375">
                   <c:v>157.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="291">
-                  <c:v>157.31</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>157.43</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>157.56</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>157.72999999999999</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>157.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>158.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>158.13999999999999</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>158.26</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>158.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="300">
+                <c:pt idx="376">
+                  <c:v>157.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>157.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>157.47</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>157.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>157.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>157.66</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>157.81</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>157.99</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>157.94</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>158.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>158.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>158.13</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>158.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>158.35</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>158.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="391">
                   <c:v>158.55000000000001</c:v>
                 </c:pt>
-                <c:pt idx="301">
-                  <c:v>158.76</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>158.78</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>158.94</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>159.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>159.18</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>159.25</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>159.37</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>159.55000000000001</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>159.69</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>159.78</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>159.9</c:v>
-                </c:pt>
-                <c:pt idx="312">
+                <c:pt idx="392">
+                  <c:v>158.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>158.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>158.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>158.84</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>158.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>158.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>159.06</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>159.15</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>159.19</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>159.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>159.4</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>159.35</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>159.4</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>159.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>159.54</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>159.66</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>159.75</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>159.81</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>159.84</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>160.13</c:v>
+                </c:pt>
+                <c:pt idx="412">
                   <c:v>160.11000000000001</c:v>
                 </c:pt>
-                <c:pt idx="313">
-                  <c:v>160.25</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>160.37</c:v>
-                </c:pt>
-                <c:pt idx="315">
+                <c:pt idx="413">
+                  <c:v>160.09</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>160.09</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>160.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>160.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>160.29</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>160.35</c:v>
+                </c:pt>
+                <c:pt idx="419">
                   <c:v>160.46</c:v>
                 </c:pt>
-                <c:pt idx="316">
-                  <c:v>160.47</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>161.03</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>160.86000000000001</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>160.94</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>161.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>161.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>161.29</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>161.44999999999999</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>161.47</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>161.6</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>161.72</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>161.84</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>162.03</c:v>
-                </c:pt>
-                <c:pt idx="329">
+                <c:pt idx="420">
+                  <c:v>160.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>160.59</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>160.72</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>160.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>160.76</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>160.82</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>160.96</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>161.01</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>161.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>161.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>161.16</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>161.26</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>161.31</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>161.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>161.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>161.49</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>161.41</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>161.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>161.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>161.87</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>161.82</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>161.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>162.09</c:v>
+                </c:pt>
+                <c:pt idx="445">
                   <c:v>162.08000000000001</c:v>
                 </c:pt>
-                <c:pt idx="330">
-                  <c:v>162.15</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>162.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>162.5</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>162.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="334">
+                <c:pt idx="446">
+                  <c:v>162.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>162.12</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>162.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>162.13</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>162.35</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>162.37</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>162.43</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>162.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>162.53</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>162.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>162.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>162.66</c:v>
+                </c:pt>
+                <c:pt idx="458">
                   <c:v>162.71</c:v>
                 </c:pt>
-                <c:pt idx="335">
-                  <c:v>162.82</c:v>
-                </c:pt>
-                <c:pt idx="336">
+                <c:pt idx="459">
+                  <c:v>162.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="460">
                   <c:v>162.86000000000001</c:v>
                 </c:pt>
-                <c:pt idx="337">
-                  <c:v>162.99</c:v>
-                </c:pt>
-                <c:pt idx="338">
+                <c:pt idx="461">
+                  <c:v>162.9</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>163.06</c:v>
+                </c:pt>
+                <c:pt idx="463">
                   <c:v>163.1</c:v>
                 </c:pt>
-                <c:pt idx="339">
-                  <c:v>163.19</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>163.32</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>163.47</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>163.6</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>163.75</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>163.91</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>163.86</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>163.99</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>164.12</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>164.28</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>164.36</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>164.45</c:v>
-                </c:pt>
-                <c:pt idx="351">
+                <c:pt idx="464">
+                  <c:v>163.12</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>163.15</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>163.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>163.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>163.24</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>163.31</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>163.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>163.69</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>163.72</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>163.56</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>163.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>163.66</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>163.88</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>163.82</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>163.87</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>163.94</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>164.04</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>164.09</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>164.25</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>164.29</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>164.26</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>164.4</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>164.43</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>164.38</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>164.41</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>164.6</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>164.55</c:v>
+                </c:pt>
+                <c:pt idx="492">
                   <c:v>164.56</c:v>
                 </c:pt>
-                <c:pt idx="352">
-                  <c:v>164.59</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>164.75</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>164.8</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>165.05</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>165.02</c:v>
-                </c:pt>
-                <c:pt idx="357">
+                <c:pt idx="493">
+                  <c:v>164.7</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>164.79</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>164.82</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>164.89</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>164.94</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>164.9</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>164.94</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>165.08</c:v>
+                </c:pt>
+                <c:pt idx="501">
                   <c:v>165.1</c:v>
                 </c:pt>
-                <c:pt idx="358">
+                <c:pt idx="502">
+                  <c:v>165.14</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>165.25</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="505">
                   <c:v>165.17</c:v>
                 </c:pt>
-                <c:pt idx="359">
-                  <c:v>165.44</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>165.45</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>165.53</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>165.66</c:v>
-                </c:pt>
-                <c:pt idx="363">
+                <c:pt idx="506">
+                  <c:v>165.4</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>165.35</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>165.47</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>165.54</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>165.59</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>165.64</c:v>
+                </c:pt>
+                <c:pt idx="513">
                   <c:v>165.68</c:v>
                 </c:pt>
-                <c:pt idx="364">
-                  <c:v>165.78</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>165.85</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>165.91</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>166.08</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>166.19</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>166.23</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>166.4</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>166.45</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>166.62</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>166.66</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>166.76</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>166.82</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>166.93</c:v>
-                </c:pt>
-                <c:pt idx="377">
+                <c:pt idx="514">
+                  <c:v>165.8</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>165.83</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>165.84</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>165.94</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>165.94</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>165.94</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>166.1</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>166.11</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>166.21</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>166.2</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>166.21</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>166.18</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>166.32</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>166.37</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>166.48</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>166.46</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>166.43</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>166.59</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>166.64</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>166.63</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>166.72</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>166.72</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>166.7</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>166.89</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>166.87</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>166.84</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>166.89</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>166.97</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>167.05</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>166.96</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>167.01</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>167.19</c:v>
+                </c:pt>
+                <c:pt idx="546">
                   <c:v>167.08</c:v>
                 </c:pt>
-                <c:pt idx="378">
-                  <c:v>167.14</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>167.18</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>167.33</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>167.35</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>167.52</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>167.62</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>167.77</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>167.74</c:v>
-                </c:pt>
-                <c:pt idx="387">
+                <c:pt idx="547">
+                  <c:v>167.27</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>167.25</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>167.38</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>167.29</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>167.38</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>167.46</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>167.46</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>167.45</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>167.44</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>167.64</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>167.56</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>167.57</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>167.64</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>167.61</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>167.63</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>167.71</c:v>
+                </c:pt>
+                <c:pt idx="563">
                   <c:v>167.83</c:v>
                 </c:pt>
-                <c:pt idx="388">
+                <c:pt idx="564">
+                  <c:v>167.72</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>167.84</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>167.83</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>167.88</c:v>
+                </c:pt>
+                <c:pt idx="568">
                   <c:v>167.94</c:v>
                 </c:pt>
-                <c:pt idx="389">
+                <c:pt idx="569">
                   <c:v>168.06</c:v>
                 </c:pt>
-                <c:pt idx="390">
-                  <c:v>168.17</c:v>
-                </c:pt>
-                <c:pt idx="391">
+                <c:pt idx="570">
+                  <c:v>168.09</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>168.07</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>168.12</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>168.14</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>168.13</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>168.32</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>168.35</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>168.24</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>168.32</c:v>
+                </c:pt>
+                <c:pt idx="579">
                   <c:v>168.28</c:v>
                 </c:pt>
-                <c:pt idx="392">
-                  <c:v>168.36</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>168.4</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>168.54</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>168.6</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>168.68</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>168.75</c:v>
-                </c:pt>
-                <c:pt idx="398">
+                <c:pt idx="580">
+                  <c:v>168.39</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>168.47</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>168.51</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>168.52</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>168.63</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>168.52</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>168.64</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>168.72</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>168.79</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>168.73</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>168.72</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>168.84</c:v>
+                </c:pt>
+                <c:pt idx="592">
                   <c:v>168.83</c:v>
                 </c:pt>
-                <c:pt idx="399">
-                  <c:v>168.89</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>168.97</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>169.11</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>169.21</c:v>
-                </c:pt>
-                <c:pt idx="403">
+                <c:pt idx="593">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>168.95</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>169.04</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>169.06</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>168.98</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>169.22</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>169.15</c:v>
+                </c:pt>
+                <c:pt idx="600">
                   <c:v>169.18</c:v>
                 </c:pt>
-                <c:pt idx="404">
-                  <c:v>169.25</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>169.37</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>169.45</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>169.61</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>169.71</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>169.77</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>169.79</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>170.1</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>170.09</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>170.1</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>170.11</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>170.24</c:v>
-                </c:pt>
-                <c:pt idx="416">
+                <c:pt idx="601">
+                  <c:v>169.2</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>169.19</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>169.3</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>169.31</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>169.43</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>169.43</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>169.42</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>169.46</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>169.53</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>169.64</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>169.68</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>169.69</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>169.73</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>169.81</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>169.87</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>169.82</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>169.82</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>169.89</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>169.95</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>170.01</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>170.03</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>170.07</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>170.17</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>170.17</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>170.2</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>170.23</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>170.22</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>170.25</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>170.45</c:v>
+                </c:pt>
+                <c:pt idx="632">
                   <c:v>170.34</c:v>
                 </c:pt>
-                <c:pt idx="417">
-                  <c:v>170.36</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>170.42</c:v>
-                </c:pt>
-                <c:pt idx="419">
+                <c:pt idx="633">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>170.33</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>170.53</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>170.49</c:v>
+                </c:pt>
+                <c:pt idx="637">
                   <c:v>170.54</c:v>
                 </c:pt>
-                <c:pt idx="420">
-                  <c:v>170.59</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>170.67</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>170.79</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>170.85</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>170.84</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>170.88</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>170.99</c:v>
-                </c:pt>
-                <c:pt idx="427">
+                <c:pt idx="638">
+                  <c:v>170.56</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>170.73</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>170.51</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>170.71</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>170.76</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>170.75</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>170.8</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>170.71</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>170.81</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>170.89</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>171.05</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>170.94</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>171.03</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>171.05</c:v>
+                </c:pt>
+                <c:pt idx="652">
                   <c:v>171.07</c:v>
                 </c:pt>
-                <c:pt idx="428">
-                  <c:v>171.15</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>171.16</c:v>
-                </c:pt>
-                <c:pt idx="430">
+                <c:pt idx="653">
+                  <c:v>171.08</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>171.21</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>171.49</c:v>
+                </c:pt>
+                <c:pt idx="656">
                   <c:v>171.24</c:v>
                 </c:pt>
-                <c:pt idx="431">
-                  <c:v>171.33</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>171.39</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>171.49</c:v>
-                </c:pt>
-                <c:pt idx="434">
+                <c:pt idx="657">
+                  <c:v>171.29</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>171.34</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>171.29</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>171.29</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>171.34</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>171.35</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>171.47</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>171.46</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>171.38</c:v>
+                </c:pt>
+                <c:pt idx="666">
                   <c:v>171.5</c:v>
                 </c:pt>
-                <c:pt idx="435">
+                <c:pt idx="667">
+                  <c:v>171.57</c:v>
+                </c:pt>
+                <c:pt idx="668">
                   <c:v>171.6</c:v>
                 </c:pt>
-                <c:pt idx="436">
-                  <c:v>171.57</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>171.71</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>171.81</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>171.86</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>171.96</c:v>
-                </c:pt>
-                <c:pt idx="441">
+                <c:pt idx="669">
+                  <c:v>171.63</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>171.67</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>171.59</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>171.68</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>171.82</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>171.8</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>171.82</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>171.88</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>171.99</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>171.99</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>171.98</c:v>
+                </c:pt>
+                <c:pt idx="680">
                   <c:v>172.06</c:v>
                 </c:pt>
-                <c:pt idx="442">
-                  <c:v>172.01</c:v>
-                </c:pt>
-                <c:pt idx="443">
+                <c:pt idx="681">
+                  <c:v>172.04</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>172.08</c:v>
+                </c:pt>
+                <c:pt idx="683">
                   <c:v>172.15</c:v>
                 </c:pt>
-                <c:pt idx="444">
+                <c:pt idx="684">
+                  <c:v>172.12</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>172.21</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>172.33</c:v>
+                </c:pt>
+                <c:pt idx="687">
                   <c:v>172.31</c:v>
                 </c:pt>
-                <c:pt idx="445">
-                  <c:v>172.32</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>172.41</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>172.4</c:v>
-                </c:pt>
-                <c:pt idx="448">
+                <c:pt idx="688">
+                  <c:v>172.28</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>172.34</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>172.39</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>172.47</c:v>
+                </c:pt>
+                <c:pt idx="692">
                   <c:v>172.44</c:v>
                 </c:pt>
-                <c:pt idx="449">
-                  <c:v>172.39</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>172.61</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>172.62</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>172.71</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>172.76</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>172.84</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>172.94</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>172.99</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>172.95</c:v>
-                </c:pt>
-                <c:pt idx="458">
+                <c:pt idx="693">
+                  <c:v>172.54</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>172.55</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>172.56</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>172.65</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>172.55</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>172.6</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>172.64</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>172.72</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>172.86</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>172.85</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>172.88</c:v>
+                </c:pt>
+                <c:pt idx="704">
                   <c:v>173.01</c:v>
                 </c:pt>
-                <c:pt idx="459">
-                  <c:v>173.08</c:v>
-                </c:pt>
-                <c:pt idx="460">
+                <c:pt idx="705">
+                  <c:v>173.04</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>173.13</c:v>
+                </c:pt>
+                <c:pt idx="708">
                   <c:v>173.14</c:v>
                 </c:pt>
-                <c:pt idx="461">
+                <c:pt idx="709">
+                  <c:v>173.06</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>173.09</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>173.11</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>173.1</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>173.22</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>173.26</c:v>
+                </c:pt>
+                <c:pt idx="715">
                   <c:v>173.18</c:v>
                 </c:pt>
-                <c:pt idx="462">
-                  <c:v>173.36</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>173.4</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>173.43</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>173.46</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>173.46</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>173.58</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>173.59</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>173.68</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>173.77</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>173.87</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>174.06</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>174.09</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>173.93</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>174.07</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>173.99</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>174.23</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>174.18</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>174.26</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>174.31</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>174.42</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>174.47</c:v>
-                </c:pt>
-                <c:pt idx="483">
+                <c:pt idx="716">
+                  <c:v>173.22</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>173.25</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>173.24</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>173.25</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>173.32</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>173.35</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>173.3</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>173.44</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>174.45</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>174.53</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>174.52</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>174.51</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>174.46</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>174.93</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>174.64</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>174.63</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>174.6</c:v>
+                </c:pt>
+                <c:pt idx="735">
                   <c:v>174.61</c:v>
                 </c:pt>
-                <c:pt idx="484">
-                  <c:v>174.64</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>174.58</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>174.71</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>174.72</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>174.7</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>174.74</c:v>
-                </c:pt>
-                <c:pt idx="490">
+                <c:pt idx="736">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>174.62</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>174.65</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>174.73</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>174.82</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>174.81</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>174.76</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>174.98</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>174.93</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>174.97</c:v>
+                </c:pt>
+                <c:pt idx="746">
                   <c:v>174.94</c:v>
                 </c:pt>
-                <c:pt idx="491">
-                  <c:v>174.92</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>174.9</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>175.03</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>175.12</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>175.14</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>175.2</c:v>
-                </c:pt>
-                <c:pt idx="497">
+                <c:pt idx="747">
+                  <c:v>174.95</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>175.02</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>175.11</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>175.07</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>175.1</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>175.04</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>175.06</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>175.06</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>175.17</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>175.21</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>175.32</c:v>
+                </c:pt>
+                <c:pt idx="758">
                   <c:v>175.24</c:v>
                 </c:pt>
-                <c:pt idx="498">
-                  <c:v>175.21</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>175.25</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>175.39</c:v>
-                </c:pt>
-                <c:pt idx="501">
+                <c:pt idx="759">
+                  <c:v>175.37</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>175.37</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>175.38</c:v>
+                </c:pt>
+                <c:pt idx="762">
                   <c:v>175.42</c:v>
                 </c:pt>
-                <c:pt idx="502">
-                  <c:v>175.47</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>175.58</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>175.66</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>175.57</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>175.76</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>175.71</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>175.8</c:v>
-                </c:pt>
-                <c:pt idx="509">
+                <c:pt idx="763">
+                  <c:v>175.43</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>175.52</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>175.6</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>175.52</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>175.59</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>175.61</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>175.68</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>175.69</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>175.74</c:v>
+                </c:pt>
+                <c:pt idx="772">
                   <c:v>175.88</c:v>
                 </c:pt>
-                <c:pt idx="510">
+                <c:pt idx="773">
+                  <c:v>175.73</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>175.77</c:v>
+                </c:pt>
+                <c:pt idx="775">
                   <c:v>175.87</c:v>
                 </c:pt>
-                <c:pt idx="511">
-                  <c:v>175.92</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>175.95</c:v>
-                </c:pt>
-                <c:pt idx="513">
+                <c:pt idx="776">
+                  <c:v>175.75</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>175.82</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>175.84</c:v>
+                </c:pt>
+                <c:pt idx="779">
                   <c:v>175.97</c:v>
                 </c:pt>
-                <c:pt idx="514">
-                  <c:v>176.07</c:v>
-                </c:pt>
-                <c:pt idx="515">
+                <c:pt idx="780">
+                  <c:v>175.84</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>175.97</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>175.97</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>176.06</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>175.93</c:v>
+                </c:pt>
+                <c:pt idx="785">
                   <c:v>176.11</c:v>
                 </c:pt>
-                <c:pt idx="516">
-                  <c:v>176.11</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>176.22</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>176.22</c:v>
-                </c:pt>
-                <c:pt idx="519">
+                <c:pt idx="786">
+                  <c:v>176.12</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>176.08</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>176.08</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>176.12</c:v>
+                </c:pt>
+                <c:pt idx="790">
                   <c:v>176.2</c:v>
                 </c:pt>
-                <c:pt idx="520">
-                  <c:v>176.35</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>176.37</c:v>
-                </c:pt>
-                <c:pt idx="522">
+                <c:pt idx="791">
+                  <c:v>176.18</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>176.17</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>176.25</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>176.27</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>176.17</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>176.34</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>176.43</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>176.46</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>176.48</c:v>
+                </c:pt>
+                <c:pt idx="800">
                   <c:v>176.45</c:v>
                 </c:pt>
-                <c:pt idx="523">
+                <c:pt idx="801">
+                  <c:v>176.5</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>176.48</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>176.44</c:v>
+                </c:pt>
+                <c:pt idx="804">
                   <c:v>176.42</c:v>
                 </c:pt>
-                <c:pt idx="524">
-                  <c:v>176.48</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>176.43</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>176.57</c:v>
-                </c:pt>
-                <c:pt idx="527">
+                <c:pt idx="805">
+                  <c:v>176.49</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>176.52</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>176.59</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>176.52</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>176.6</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>176.59</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>176.69</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>176.66</c:v>
+                </c:pt>
+                <c:pt idx="813">
                   <c:v>176.62</c:v>
                 </c:pt>
-                <c:pt idx="528">
-                  <c:v>176.74</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>176.72</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>176.69</c:v>
-                </c:pt>
-                <c:pt idx="531">
+                <c:pt idx="814">
+                  <c:v>176.7</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>176.71</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>176.75</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>176.81</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>176.86</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>176.87</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>176.9</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>176.87</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>176.91</c:v>
+                </c:pt>
+                <c:pt idx="823">
                   <c:v>176.84</c:v>
                 </c:pt>
-                <c:pt idx="532">
-                  <c:v>176.9</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>176.89</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>176.99</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>176.99</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>177.19</c:v>
-                </c:pt>
-                <c:pt idx="538">
+                <c:pt idx="824">
+                  <c:v>176.92</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>176.97</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>177.01</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>176.98</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>177.08</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>177.14</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>177.08</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>177.18</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="833">
                   <c:v>177.17</c:v>
                 </c:pt>
-                <c:pt idx="539">
-                  <c:v>177.09</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>177.16</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>177.26</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>177.3</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>177.2</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>177.25</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>177.44</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>177.32</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>177.51</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>177.53</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>177.65</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>177.56</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>177.67</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>177.76</c:v>
-                </c:pt>
-                <c:pt idx="553">
+                <c:pt idx="834">
+                  <c:v>177.17</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>177.21</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>177.29</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>177.38</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>177.45</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>177.46</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>177.45</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>177.43</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>177.42</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>177.52</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>177.46</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>177.58</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>177.58</c:v>
+                </c:pt>
+                <c:pt idx="847">
                   <c:v>177.77</c:v>
                 </c:pt>
-                <c:pt idx="554">
+                <c:pt idx="848">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>177.68</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>177.68</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>177.74</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>177.68</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>177.75</c:v>
+                </c:pt>
+                <c:pt idx="854">
                   <c:v>177.77</c:v>
                 </c:pt>
-                <c:pt idx="555">
-                  <c:v>177.74</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>177.97</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>177.88</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>177.89</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>177.99</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>177.98</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>177.99</c:v>
-                </c:pt>
-                <c:pt idx="562">
+                <c:pt idx="855">
+                  <c:v>177.87</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>177.84</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>177.77</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>177.91</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>177.81</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>177.85</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>177.84</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>177.94</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>177.95</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>177.96</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>178.02</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>178.02</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>178.08</c:v>
+                </c:pt>
+                <c:pt idx="868">
                   <c:v>178.09</c:v>
                 </c:pt>
-                <c:pt idx="563">
+                <c:pt idx="869">
+                  <c:v>178.09</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>178.21</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>178.12</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>178.18</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>178.31</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>178.28</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>178.33</c:v>
+                </c:pt>
+                <c:pt idx="876">
                   <c:v>178.22</c:v>
                 </c:pt>
-                <c:pt idx="564">
-                  <c:v>178.11</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>178.24</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>178.22</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>178.25</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>178.29</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>178.4</c:v>
-                </c:pt>
-                <c:pt idx="570">
+                <c:pt idx="877">
+                  <c:v>178.42</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>178.44</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>178.47</c:v>
+                </c:pt>
+                <c:pt idx="880">
                   <c:v>178.45</c:v>
                 </c:pt>
-                <c:pt idx="571">
-                  <c:v>178.42</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>178.48</c:v>
-                </c:pt>
-                <c:pt idx="573">
+                <c:pt idx="881">
+                  <c:v>178.46</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>178.34</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>178.55</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>178.49</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>178.53</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>178.45</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>178.53</c:v>
+                </c:pt>
+                <c:pt idx="889">
                   <c:v>178.51</c:v>
                 </c:pt>
-                <c:pt idx="574">
-                  <c:v>178.5</c:v>
-                </c:pt>
-                <c:pt idx="575">
+                <c:pt idx="890">
+                  <c:v>178.63</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>178.61</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>178.61</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>178.6</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>178.63</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>178.73</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>178.54</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>178.63</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>178.65</c:v>
+                </c:pt>
+                <c:pt idx="899">
                   <c:v>178.68</c:v>
                 </c:pt>
-                <c:pt idx="576">
-                  <c:v>178.73</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>178.63</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>178.73</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>178.68</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>178.8</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>178.88</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>178.91</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>178.94</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>179.02</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>178.9</c:v>
-                </c:pt>
-                <c:pt idx="586">
+                <c:pt idx="900">
+                  <c:v>178.74</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>178.75</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>178.77</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>178.76</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>178.92</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>178.89</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>178.87</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>178.96</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>178.95</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>178.87</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>178.85</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>178.99</c:v>
+                </c:pt>
+                <c:pt idx="912">
                   <c:v>179.01</c:v>
                 </c:pt>
-                <c:pt idx="587">
-                  <c:v>179.11</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>179.15</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>179.09</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>179.06</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>179.19</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>179.18</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>179.34</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>179.29</c:v>
-                </c:pt>
-                <c:pt idx="595">
+                <c:pt idx="913">
+                  <c:v>179.03</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>179.04</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>179.12</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>179.12</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>179.13</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>179.17</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>179.2</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>179.25</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>179.3</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>179.26</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>179.24</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>179.28</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>179.27</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>179.49</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>179.35</c:v>
+                </c:pt>
+                <c:pt idx="929">
                   <c:v>179.39</c:v>
                 </c:pt>
-                <c:pt idx="596">
-                  <c:v>179.41</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>179.34</c:v>
-                </c:pt>
-                <c:pt idx="598">
+                <c:pt idx="930">
+                  <c:v>179.4</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>179.35</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>179.43</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>179.55</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>179.54</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>179.52</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>179.56</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>179.62</c:v>
+                </c:pt>
+                <c:pt idx="938">
                   <c:v>179.59</c:v>
                 </c:pt>
-                <c:pt idx="599">
-                  <c:v>179.49</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>179.52</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>179.53</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>179.51</c:v>
-                </c:pt>
-                <c:pt idx="603">
+                <c:pt idx="939">
                   <c:v>179.62</c:v>
                 </c:pt>
-                <c:pt idx="604">
-                  <c:v>179.61</c:v>
-                </c:pt>
-                <c:pt idx="605">
+                <c:pt idx="940">
+                  <c:v>179.59</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>179.71</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>179.72</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>179.62</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>179.66</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>179.72</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>179.71</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>179.75</c:v>
+                </c:pt>
+                <c:pt idx="948">
                   <c:v>179.76</c:v>
                 </c:pt>
-                <c:pt idx="606">
-                  <c:v>179.75</c:v>
-                </c:pt>
-                <c:pt idx="607">
+                <c:pt idx="949">
+                  <c:v>179.79</c:v>
+                </c:pt>
+                <c:pt idx="950">
                   <c:v>179.77</c:v>
                 </c:pt>
-                <c:pt idx="608">
-                  <c:v>179.78</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>179.84</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>179.93</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>179.96</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>179.94</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>179.96</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>180.06</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>180.12</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>180.09</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>180.09</c:v>
-                </c:pt>
-                <c:pt idx="618">
+                <c:pt idx="951">
+                  <c:v>179.91</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>179.88</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>179.79</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>179.81</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>179.87</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>179.9</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>179.92</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>179.99</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>179.89</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>180.05</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>180.07</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>179.89</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>180.08</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>179.95</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>180.01</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>180.01</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>180.13</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>180.03</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>180.18</c:v>
+                </c:pt>
+                <c:pt idx="970">
                   <c:v>180.15</c:v>
                 </c:pt>
-                <c:pt idx="619">
-                  <c:v>180.17</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>180.23</c:v>
-                </c:pt>
-                <c:pt idx="621">
+                <c:pt idx="971">
+                  <c:v>180.2</c:v>
+                </c:pt>
+                <c:pt idx="972">
                   <c:v>180.27</c:v>
                 </c:pt>
-                <c:pt idx="622">
-                  <c:v>180.28</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>180.32</c:v>
-                </c:pt>
-                <c:pt idx="624">
+                <c:pt idx="973">
+                  <c:v>180.25</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>180.19</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>180.3</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>180.33</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>180.36</c:v>
+                </c:pt>
+                <c:pt idx="978">
                   <c:v>180.38</c:v>
                 </c:pt>
-                <c:pt idx="625">
-                  <c:v>180.4</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>180.42</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>180.52</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>180.43</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>180.43</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>180.47</c:v>
-                </c:pt>
-                <c:pt idx="631">
+                <c:pt idx="979">
+                  <c:v>180.31</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>180.46</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>180.36</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>180.36</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>180.38</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>180.38</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>180.41</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>180.46</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>180.48</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>180.58</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>180.55</c:v>
+                </c:pt>
+                <c:pt idx="990">
                   <c:v>180.65</c:v>
                 </c:pt>
-                <c:pt idx="632">
-                  <c:v>180.54</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>180.49</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>180.53</c:v>
-                </c:pt>
-                <c:pt idx="635">
+                <c:pt idx="991">
+                  <c:v>180.62</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>180.63</c:v>
+                </c:pt>
+                <c:pt idx="993">
                   <c:v>180.71</c:v>
                 </c:pt>
-                <c:pt idx="636">
-                  <c:v>180.66</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>180.7</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>180.71</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>180.89</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>180.65</c:v>
-                </c:pt>
-                <c:pt idx="641">
+                <c:pt idx="994">
+                  <c:v>180.67</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>180.6</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>180.74</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>180.8</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>180.82</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>180.73</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>180.73</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>180.91</c:v>
+                </c:pt>
+                <c:pt idx="1002">
                   <c:v>180.85</c:v>
                 </c:pt>
-                <c:pt idx="642">
-                  <c:v>180.9</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>180.89</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>180.94</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>180.84</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>180.94</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>181.01</c:v>
-                </c:pt>
-                <c:pt idx="648">
+                <c:pt idx="1003">
+                  <c:v>180.87</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>180.93</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>180.98</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>180.92</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>180.93</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>180.87</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>180.97</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>180.92</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>181.02</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>181.11</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>181.15</c:v>
+                </c:pt>
+                <c:pt idx="1015">
                   <c:v>181.18</c:v>
                 </c:pt>
-                <c:pt idx="649">
-                  <c:v>181.07</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>181.16</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>181.18</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>181.17</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>181.18</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>181.3</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>181.58</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>181.32</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>181.36</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>181.41</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>181.35</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>181.34</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>181.36</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>181.38</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>181.51</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>181.5</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>181.41</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>181.52</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>181.61</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>181.62</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>181.62</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>181.64</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>181.55</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>181.62</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>181.73</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>181.74</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>181.74</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>181.78</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>181.88</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>181.88</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>181.85</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>181.93</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>181.92</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>181.94</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>181.96</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>182.06</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>182.16</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>182.15</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>182.1</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>182.16</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>182.19</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>182.27</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>182.23</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>182.31</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>182.33</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>182.31</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>182.39</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>182.23</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>182.3</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>182.33</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>182.55</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>182.52</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>182.54</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>182.66</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>182.68</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>182.63</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>182.75</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>182.74</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>182.68</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>182.71</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>182.72</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>182.74</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>182.85</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>182.9</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>182.82</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>182.88</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>182.89</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>182.91</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>182.91</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>182.99</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>183.03</c:v>
-                </c:pt>
-                <c:pt idx="722">
-                  <c:v>182.98</c:v>
-                </c:pt>
-                <c:pt idx="723">
-                  <c:v>183.12</c:v>
-                </c:pt>
-                <c:pt idx="724">
-                  <c:v>183.18</c:v>
-                </c:pt>
-                <c:pt idx="725">
-                  <c:v>183.19</c:v>
-                </c:pt>
-                <c:pt idx="726">
-                  <c:v>183.24</c:v>
-                </c:pt>
-                <c:pt idx="727">
-                  <c:v>183.22</c:v>
-                </c:pt>
-                <c:pt idx="728">
-                  <c:v>183.24</c:v>
-                </c:pt>
-                <c:pt idx="729">
-                  <c:v>183.22</c:v>
-                </c:pt>
-                <c:pt idx="730">
-                  <c:v>183.15</c:v>
-                </c:pt>
-                <c:pt idx="731">
-                  <c:v>183.66</c:v>
-                </c:pt>
-                <c:pt idx="732">
-                  <c:v>183.36</c:v>
-                </c:pt>
-                <c:pt idx="733">
-                  <c:v>183.33</c:v>
-                </c:pt>
-                <c:pt idx="734">
-                  <c:v>183.31</c:v>
-                </c:pt>
-                <c:pt idx="735">
-                  <c:v>183.33</c:v>
-                </c:pt>
-                <c:pt idx="736">
-                  <c:v>183.29</c:v>
-                </c:pt>
-                <c:pt idx="737">
-                  <c:v>183.33</c:v>
-                </c:pt>
-                <c:pt idx="738">
-                  <c:v>183.35</c:v>
-                </c:pt>
-                <c:pt idx="739">
-                  <c:v>183.42</c:v>
-                </c:pt>
-                <c:pt idx="740">
-                  <c:v>183.53</c:v>
-                </c:pt>
-                <c:pt idx="741">
-                  <c:v>183.51</c:v>
-                </c:pt>
-                <c:pt idx="742">
-                  <c:v>183.46</c:v>
-                </c:pt>
-                <c:pt idx="743">
-                  <c:v>183.68</c:v>
-                </c:pt>
-                <c:pt idx="744">
-                  <c:v>183.6</c:v>
-                </c:pt>
-                <c:pt idx="745">
-                  <c:v>183.64</c:v>
-                </c:pt>
-                <c:pt idx="746">
-                  <c:v>183.6</c:v>
-                </c:pt>
-                <c:pt idx="747">
-                  <c:v>183.59</c:v>
-                </c:pt>
-                <c:pt idx="748">
-                  <c:v>183.65</c:v>
-                </c:pt>
-                <c:pt idx="749">
-                  <c:v>183.74</c:v>
-                </c:pt>
-                <c:pt idx="750">
-                  <c:v>183.7</c:v>
-                </c:pt>
-                <c:pt idx="751">
-                  <c:v>183.71</c:v>
-                </c:pt>
-                <c:pt idx="752">
-                  <c:v>183.64</c:v>
-                </c:pt>
-                <c:pt idx="753">
-                  <c:v>183.66</c:v>
-                </c:pt>
-                <c:pt idx="754">
-                  <c:v>183.67</c:v>
-                </c:pt>
-                <c:pt idx="755">
-                  <c:v>183.79</c:v>
-                </c:pt>
-                <c:pt idx="756">
-                  <c:v>183.82</c:v>
-                </c:pt>
-                <c:pt idx="757">
-                  <c:v>183.93</c:v>
-                </c:pt>
-                <c:pt idx="758">
-                  <c:v>183.85</c:v>
-                </c:pt>
-                <c:pt idx="759">
-                  <c:v>183.98</c:v>
-                </c:pt>
-                <c:pt idx="760">
-                  <c:v>183.95</c:v>
-                </c:pt>
-                <c:pt idx="761">
-                  <c:v>183.94</c:v>
-                </c:pt>
-                <c:pt idx="762">
-                  <c:v>183.97</c:v>
-                </c:pt>
-                <c:pt idx="763">
-                  <c:v>183.96</c:v>
-                </c:pt>
-                <c:pt idx="764">
-                  <c:v>184.04</c:v>
-                </c:pt>
-                <c:pt idx="765">
-                  <c:v>184.11</c:v>
-                </c:pt>
-                <c:pt idx="766">
-                  <c:v>184.03</c:v>
-                </c:pt>
-                <c:pt idx="767">
-                  <c:v>184.08</c:v>
-                </c:pt>
-                <c:pt idx="768">
-                  <c:v>184.12</c:v>
-                </c:pt>
-                <c:pt idx="769">
-                  <c:v>184.15</c:v>
-                </c:pt>
-                <c:pt idx="770">
-                  <c:v>184.14</c:v>
-                </c:pt>
-                <c:pt idx="771">
-                  <c:v>184.17</c:v>
-                </c:pt>
-                <c:pt idx="772">
-                  <c:v>184.3</c:v>
-                </c:pt>
-                <c:pt idx="773">
-                  <c:v>184.15</c:v>
-                </c:pt>
-                <c:pt idx="774">
-                  <c:v>184.18</c:v>
-                </c:pt>
-                <c:pt idx="775">
-                  <c:v>184.28</c:v>
-                </c:pt>
-                <c:pt idx="776">
-                  <c:v>184.16</c:v>
-                </c:pt>
-                <c:pt idx="777">
-                  <c:v>184.18</c:v>
-                </c:pt>
-                <c:pt idx="778">
-                  <c:v>184.23</c:v>
-                </c:pt>
-                <c:pt idx="779">
-                  <c:v>184.34</c:v>
-                </c:pt>
-                <c:pt idx="780">
-                  <c:v>184.21</c:v>
-                </c:pt>
-                <c:pt idx="781">
-                  <c:v>184.35</c:v>
-                </c:pt>
-                <c:pt idx="782">
-                  <c:v>184.31</c:v>
-                </c:pt>
-                <c:pt idx="783">
-                  <c:v>184.41</c:v>
-                </c:pt>
-                <c:pt idx="784">
-                  <c:v>184.29</c:v>
-                </c:pt>
-                <c:pt idx="785">
-                  <c:v>184.45</c:v>
-                </c:pt>
-                <c:pt idx="786">
-                  <c:v>184.42</c:v>
-                </c:pt>
-                <c:pt idx="787">
-                  <c:v>184.4</c:v>
-                </c:pt>
-                <c:pt idx="788">
-                  <c:v>184.4</c:v>
-                </c:pt>
-                <c:pt idx="789">
-                  <c:v>184.45</c:v>
-                </c:pt>
-                <c:pt idx="790">
-                  <c:v>184.5</c:v>
-                </c:pt>
-                <c:pt idx="791">
-                  <c:v>184.49</c:v>
-                </c:pt>
-                <c:pt idx="792">
-                  <c:v>184.47</c:v>
-                </c:pt>
-                <c:pt idx="793">
-                  <c:v>184.54</c:v>
-                </c:pt>
-                <c:pt idx="794">
-                  <c:v>184.56</c:v>
-                </c:pt>
-                <c:pt idx="795">
-                  <c:v>184.43</c:v>
-                </c:pt>
-                <c:pt idx="796">
-                  <c:v>184.61</c:v>
-                </c:pt>
-                <c:pt idx="797">
-                  <c:v>184.7</c:v>
-                </c:pt>
-                <c:pt idx="798">
-                  <c:v>184.71</c:v>
-                </c:pt>
-                <c:pt idx="799">
-                  <c:v>184.72</c:v>
-                </c:pt>
-                <c:pt idx="800">
-                  <c:v>184.7</c:v>
-                </c:pt>
-                <c:pt idx="801">
-                  <c:v>184.75</c:v>
-                </c:pt>
-                <c:pt idx="802">
-                  <c:v>184.74</c:v>
-                </c:pt>
-                <c:pt idx="803">
-                  <c:v>184.69</c:v>
-                </c:pt>
-                <c:pt idx="804">
-                  <c:v>184.68</c:v>
-                </c:pt>
-                <c:pt idx="805">
-                  <c:v>184.74</c:v>
-                </c:pt>
-                <c:pt idx="806">
-                  <c:v>184.74</c:v>
-                </c:pt>
-                <c:pt idx="807">
-                  <c:v>184.81</c:v>
-                </c:pt>
-                <c:pt idx="808">
-                  <c:v>184.73</c:v>
-                </c:pt>
-                <c:pt idx="809">
-                  <c:v>184.81</c:v>
-                </c:pt>
-                <c:pt idx="810">
-                  <c:v>184.81</c:v>
-                </c:pt>
-                <c:pt idx="811">
-                  <c:v>184.93</c:v>
-                </c:pt>
-                <c:pt idx="812">
-                  <c:v>184.91</c:v>
-                </c:pt>
-                <c:pt idx="813">
-                  <c:v>184.86</c:v>
-                </c:pt>
-                <c:pt idx="814">
-                  <c:v>184.95</c:v>
-                </c:pt>
-                <c:pt idx="815">
-                  <c:v>184.92</c:v>
-                </c:pt>
-                <c:pt idx="816">
-                  <c:v>184.95</c:v>
-                </c:pt>
-                <c:pt idx="817">
-                  <c:v>184.99</c:v>
-                </c:pt>
-                <c:pt idx="818">
-                  <c:v>185.04</c:v>
-                </c:pt>
-                <c:pt idx="819">
-                  <c:v>185.02</c:v>
-                </c:pt>
-                <c:pt idx="820">
-                  <c:v>185.04</c:v>
-                </c:pt>
-                <c:pt idx="821">
-                  <c:v>185.01</c:v>
-                </c:pt>
-                <c:pt idx="822">
-                  <c:v>185.03</c:v>
-                </c:pt>
-                <c:pt idx="823">
-                  <c:v>184.96</c:v>
-                </c:pt>
-                <c:pt idx="824">
-                  <c:v>185.03</c:v>
-                </c:pt>
-                <c:pt idx="825">
-                  <c:v>185.05</c:v>
-                </c:pt>
-                <c:pt idx="826">
-                  <c:v>185.08</c:v>
-                </c:pt>
-                <c:pt idx="827">
-                  <c:v>185.07</c:v>
-                </c:pt>
-                <c:pt idx="828">
-                  <c:v>185.14</c:v>
-                </c:pt>
-                <c:pt idx="829">
-                  <c:v>185.18</c:v>
-                </c:pt>
-                <c:pt idx="830">
-                  <c:v>185.12</c:v>
-                </c:pt>
-                <c:pt idx="831">
-                  <c:v>185.21</c:v>
-                </c:pt>
-                <c:pt idx="832">
-                  <c:v>185.2</c:v>
-                </c:pt>
-                <c:pt idx="833">
-                  <c:v>185.16</c:v>
-                </c:pt>
-                <c:pt idx="834">
-                  <c:v>185.12</c:v>
-                </c:pt>
-                <c:pt idx="835">
-                  <c:v>185.11</c:v>
-                </c:pt>
-                <c:pt idx="836">
-                  <c:v>185.21</c:v>
-                </c:pt>
-                <c:pt idx="837">
-                  <c:v>185.32</c:v>
-                </c:pt>
-                <c:pt idx="838">
-                  <c:v>185.37</c:v>
-                </c:pt>
-                <c:pt idx="839">
-                  <c:v>185.39</c:v>
-                </c:pt>
-                <c:pt idx="840">
-                  <c:v>185.39</c:v>
-                </c:pt>
-                <c:pt idx="841">
-                  <c:v>185.34</c:v>
-                </c:pt>
-                <c:pt idx="842">
-                  <c:v>185.32</c:v>
-                </c:pt>
-                <c:pt idx="843">
-                  <c:v>185.42</c:v>
-                </c:pt>
-                <c:pt idx="844">
-                  <c:v>185.35</c:v>
-                </c:pt>
-                <c:pt idx="845">
-                  <c:v>185.45</c:v>
-                </c:pt>
-                <c:pt idx="846">
-                  <c:v>185.47</c:v>
-                </c:pt>
-                <c:pt idx="847">
-                  <c:v>185.6</c:v>
-                </c:pt>
-                <c:pt idx="848">
-                  <c:v>185.37</c:v>
-                </c:pt>
-                <c:pt idx="849">
-                  <c:v>185.53</c:v>
-                </c:pt>
-                <c:pt idx="850">
-                  <c:v>185.52</c:v>
-                </c:pt>
-                <c:pt idx="851">
-                  <c:v>185.6</c:v>
-                </c:pt>
-                <c:pt idx="852">
-                  <c:v>185.53</c:v>
-                </c:pt>
-                <c:pt idx="853">
-                  <c:v>185.62</c:v>
-                </c:pt>
-                <c:pt idx="854">
-                  <c:v>185.62</c:v>
-                </c:pt>
-                <c:pt idx="855">
-                  <c:v>185.72</c:v>
-                </c:pt>
-                <c:pt idx="856">
-                  <c:v>185.69</c:v>
-                </c:pt>
-                <c:pt idx="857">
-                  <c:v>185.63</c:v>
-                </c:pt>
-                <c:pt idx="858">
-                  <c:v>185.76</c:v>
-                </c:pt>
-                <c:pt idx="859">
-                  <c:v>185.69</c:v>
-                </c:pt>
-                <c:pt idx="860">
-                  <c:v>185.71</c:v>
-                </c:pt>
-                <c:pt idx="861">
-                  <c:v>185.69</c:v>
-                </c:pt>
-                <c:pt idx="862">
-                  <c:v>185.77</c:v>
-                </c:pt>
-                <c:pt idx="863">
-                  <c:v>185.78</c:v>
-                </c:pt>
-                <c:pt idx="864">
-                  <c:v>185.77</c:v>
-                </c:pt>
-                <c:pt idx="865">
-                  <c:v>185.8</c:v>
-                </c:pt>
-                <c:pt idx="866">
-                  <c:v>185.81</c:v>
-                </c:pt>
-                <c:pt idx="867">
-                  <c:v>185.85</c:v>
-                </c:pt>
-                <c:pt idx="868">
-                  <c:v>185.84</c:v>
-                </c:pt>
-                <c:pt idx="869">
-                  <c:v>185.84</c:v>
-                </c:pt>
-                <c:pt idx="870">
-                  <c:v>185.95</c:v>
-                </c:pt>
-                <c:pt idx="871">
-                  <c:v>185.86</c:v>
-                </c:pt>
-                <c:pt idx="872">
-                  <c:v>185.88</c:v>
-                </c:pt>
-                <c:pt idx="873">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="874">
-                  <c:v>185.95</c:v>
-                </c:pt>
-                <c:pt idx="875">
-                  <c:v>185.98</c:v>
-                </c:pt>
-                <c:pt idx="876">
-                  <c:v>185.86</c:v>
-                </c:pt>
-                <c:pt idx="877">
-                  <c:v>186.05</c:v>
-                </c:pt>
-                <c:pt idx="878">
-                  <c:v>186.04</c:v>
-                </c:pt>
-                <c:pt idx="879">
-                  <c:v>186.08</c:v>
-                </c:pt>
-                <c:pt idx="880">
-                  <c:v>186.05</c:v>
-                </c:pt>
-                <c:pt idx="881">
-                  <c:v>186.09</c:v>
-                </c:pt>
-                <c:pt idx="882">
-                  <c:v>185.95</c:v>
-                </c:pt>
-                <c:pt idx="883">
-                  <c:v>186.15</c:v>
-                </c:pt>
-                <c:pt idx="884">
-                  <c:v>186.07</c:v>
-                </c:pt>
-                <c:pt idx="885">
-                  <c:v>186.11</c:v>
-                </c:pt>
-                <c:pt idx="886">
-                  <c:v>186.15</c:v>
-                </c:pt>
-                <c:pt idx="887">
-                  <c:v>186.06</c:v>
-                </c:pt>
-                <c:pt idx="888">
-                  <c:v>186.14</c:v>
-                </c:pt>
-                <c:pt idx="889">
-                  <c:v>186.09</c:v>
-                </c:pt>
-                <c:pt idx="890">
-                  <c:v>186.19</c:v>
-                </c:pt>
-                <c:pt idx="891">
-                  <c:v>186.17</c:v>
-                </c:pt>
-                <c:pt idx="892">
-                  <c:v>186.16</c:v>
-                </c:pt>
-                <c:pt idx="893">
-                  <c:v>186.18</c:v>
-                </c:pt>
-                <c:pt idx="894">
-                  <c:v>186.21</c:v>
-                </c:pt>
-                <c:pt idx="895">
-                  <c:v>186.33</c:v>
-                </c:pt>
-                <c:pt idx="896">
-                  <c:v>186.13</c:v>
-                </c:pt>
-                <c:pt idx="897">
-                  <c:v>186.25</c:v>
-                </c:pt>
-                <c:pt idx="898">
-                  <c:v>186.27</c:v>
-                </c:pt>
-                <c:pt idx="899">
-                  <c:v>186.31</c:v>
-                </c:pt>
-                <c:pt idx="900">
-                  <c:v>186.35</c:v>
-                </c:pt>
-                <c:pt idx="901">
-                  <c:v>186.36</c:v>
-                </c:pt>
-                <c:pt idx="902">
-                  <c:v>186.37</c:v>
-                </c:pt>
-                <c:pt idx="903">
-                  <c:v>186.34</c:v>
-                </c:pt>
-                <c:pt idx="904">
-                  <c:v>186.48</c:v>
-                </c:pt>
-                <c:pt idx="905">
-                  <c:v>186.46</c:v>
-                </c:pt>
-                <c:pt idx="906">
-                  <c:v>186.43</c:v>
-                </c:pt>
-                <c:pt idx="907">
-                  <c:v>186.52</c:v>
-                </c:pt>
-                <c:pt idx="908">
-                  <c:v>186.48</c:v>
-                </c:pt>
-                <c:pt idx="909">
-                  <c:v>186.39</c:v>
-                </c:pt>
-                <c:pt idx="910">
-                  <c:v>186.4</c:v>
-                </c:pt>
-                <c:pt idx="911">
-                  <c:v>186.51</c:v>
-                </c:pt>
-                <c:pt idx="912">
-                  <c:v>186.51</c:v>
-                </c:pt>
-                <c:pt idx="913">
-                  <c:v>186.53</c:v>
-                </c:pt>
-                <c:pt idx="914">
-                  <c:v>186.52</c:v>
-                </c:pt>
-                <c:pt idx="915">
-                  <c:v>186.58</c:v>
-                </c:pt>
-                <c:pt idx="916">
-                  <c:v>186.59</c:v>
-                </c:pt>
-                <c:pt idx="917">
-                  <c:v>186.47</c:v>
-                </c:pt>
-                <c:pt idx="918">
-                  <c:v>186.6</c:v>
-                </c:pt>
-                <c:pt idx="919">
-                  <c:v>186.64</c:v>
-                </c:pt>
-                <c:pt idx="920">
-                  <c:v>186.65</c:v>
-                </c:pt>
-                <c:pt idx="921">
-                  <c:v>186.67</c:v>
-                </c:pt>
-                <c:pt idx="922">
-                  <c:v>186.72</c:v>
-                </c:pt>
-                <c:pt idx="923">
-                  <c:v>186.67</c:v>
-                </c:pt>
-                <c:pt idx="924">
-                  <c:v>186.61</c:v>
-                </c:pt>
-                <c:pt idx="925">
-                  <c:v>186.65</c:v>
-                </c:pt>
-                <c:pt idx="926">
-                  <c:v>186.64</c:v>
-                </c:pt>
-                <c:pt idx="927">
-                  <c:v>186.82</c:v>
-                </c:pt>
-                <c:pt idx="928">
-                  <c:v>186.7</c:v>
-                </c:pt>
-                <c:pt idx="929">
-                  <c:v>186.72</c:v>
-                </c:pt>
-                <c:pt idx="930">
-                  <c:v>186.73</c:v>
-                </c:pt>
-                <c:pt idx="931">
-                  <c:v>186.67</c:v>
-                </c:pt>
-                <c:pt idx="932">
-                  <c:v>186.76</c:v>
-                </c:pt>
-                <c:pt idx="933">
-                  <c:v>186.86</c:v>
-                </c:pt>
-                <c:pt idx="934">
-                  <c:v>186.84</c:v>
-                </c:pt>
-                <c:pt idx="935">
-                  <c:v>186.82</c:v>
-                </c:pt>
-                <c:pt idx="936">
-                  <c:v>186.83</c:v>
-                </c:pt>
-                <c:pt idx="937">
-                  <c:v>186.9</c:v>
-                </c:pt>
-                <c:pt idx="938">
-                  <c:v>186.86</c:v>
-                </c:pt>
-                <c:pt idx="939">
-                  <c:v>186.9</c:v>
-                </c:pt>
-                <c:pt idx="940">
-                  <c:v>186.87</c:v>
-                </c:pt>
-                <c:pt idx="941">
-                  <c:v>186.99</c:v>
-                </c:pt>
-                <c:pt idx="942">
-                  <c:v>186.98</c:v>
-                </c:pt>
-                <c:pt idx="943">
-                  <c:v>186.92</c:v>
-                </c:pt>
-                <c:pt idx="944">
-                  <c:v>186.93</c:v>
-                </c:pt>
-                <c:pt idx="945">
-                  <c:v>186.98</c:v>
-                </c:pt>
-                <c:pt idx="946">
-                  <c:v>186.99</c:v>
-                </c:pt>
-                <c:pt idx="947">
-                  <c:v>187.01</c:v>
-                </c:pt>
-                <c:pt idx="948">
-                  <c:v>187.02</c:v>
-                </c:pt>
-                <c:pt idx="949">
-                  <c:v>187.04</c:v>
-                </c:pt>
-                <c:pt idx="950">
-                  <c:v>187.04</c:v>
-                </c:pt>
-                <c:pt idx="951">
-                  <c:v>187.16</c:v>
-                </c:pt>
-                <c:pt idx="952">
-                  <c:v>187.13</c:v>
-                </c:pt>
-                <c:pt idx="953">
-                  <c:v>187.06</c:v>
-                </c:pt>
-                <c:pt idx="954">
-                  <c:v>187.04</c:v>
-                </c:pt>
-                <c:pt idx="955">
-                  <c:v>187.13</c:v>
-                </c:pt>
-                <c:pt idx="956">
-                  <c:v>187.18</c:v>
-                </c:pt>
-                <c:pt idx="957">
-                  <c:v>187.18</c:v>
-                </c:pt>
-                <c:pt idx="958">
-                  <c:v>187.24</c:v>
-                </c:pt>
-                <c:pt idx="959">
-                  <c:v>187.17</c:v>
-                </c:pt>
-                <c:pt idx="960">
-                  <c:v>187.28</c:v>
-                </c:pt>
-                <c:pt idx="961">
-                  <c:v>187.3</c:v>
-                </c:pt>
-                <c:pt idx="962">
-                  <c:v>187.1</c:v>
-                </c:pt>
-                <c:pt idx="963">
-                  <c:v>187.29</c:v>
-                </c:pt>
-                <c:pt idx="964">
-                  <c:v>187.15</c:v>
-                </c:pt>
-                <c:pt idx="965">
-                  <c:v>187.23</c:v>
-                </c:pt>
-                <c:pt idx="966">
-                  <c:v>187.2</c:v>
-                </c:pt>
-                <c:pt idx="967">
-                  <c:v>187.34</c:v>
-                </c:pt>
-                <c:pt idx="968">
-                  <c:v>187.2</c:v>
-                </c:pt>
-                <c:pt idx="969">
-                  <c:v>187.35</c:v>
-                </c:pt>
-                <c:pt idx="970">
-                  <c:v>187.31</c:v>
-                </c:pt>
-                <c:pt idx="971">
-                  <c:v>187.36</c:v>
-                </c:pt>
-                <c:pt idx="972">
-                  <c:v>187.44</c:v>
-                </c:pt>
-                <c:pt idx="973">
-                  <c:v>187.42</c:v>
-                </c:pt>
-                <c:pt idx="974">
-                  <c:v>187.36</c:v>
-                </c:pt>
-                <c:pt idx="975">
-                  <c:v>187.47</c:v>
-                </c:pt>
-                <c:pt idx="976">
-                  <c:v>187.49</c:v>
-                </c:pt>
-                <c:pt idx="977">
-                  <c:v>187.53</c:v>
-                </c:pt>
-                <c:pt idx="978">
-                  <c:v>187.55</c:v>
-                </c:pt>
-                <c:pt idx="979">
-                  <c:v>187.46</c:v>
-                </c:pt>
-                <c:pt idx="980">
-                  <c:v>187.59</c:v>
-                </c:pt>
-                <c:pt idx="981">
-                  <c:v>187.49</c:v>
-                </c:pt>
-                <c:pt idx="982">
-                  <c:v>187.47</c:v>
-                </c:pt>
-                <c:pt idx="983">
-                  <c:v>187.5</c:v>
-                </c:pt>
-                <c:pt idx="984">
-                  <c:v>187.49</c:v>
-                </c:pt>
-                <c:pt idx="985">
-                  <c:v>187.53</c:v>
-                </c:pt>
-                <c:pt idx="986">
-                  <c:v>187.52</c:v>
-                </c:pt>
-                <c:pt idx="987">
-                  <c:v>187.56</c:v>
-                </c:pt>
-                <c:pt idx="988">
-                  <c:v>187.63</c:v>
-                </c:pt>
-                <c:pt idx="989">
-                  <c:v>187.61</c:v>
-                </c:pt>
-                <c:pt idx="990">
-                  <c:v>187.7</c:v>
-                </c:pt>
-                <c:pt idx="991">
-                  <c:v>187.66</c:v>
-                </c:pt>
-                <c:pt idx="992">
-                  <c:v>187.67</c:v>
-                </c:pt>
-                <c:pt idx="993">
-                  <c:v>187.75</c:v>
-                </c:pt>
-                <c:pt idx="994">
-                  <c:v>187.69</c:v>
-                </c:pt>
-                <c:pt idx="995">
-                  <c:v>187.64</c:v>
-                </c:pt>
-                <c:pt idx="996">
-                  <c:v>187.75</c:v>
-                </c:pt>
-                <c:pt idx="997">
-                  <c:v>187.81</c:v>
-                </c:pt>
-                <c:pt idx="998">
-                  <c:v>187.82</c:v>
-                </c:pt>
-                <c:pt idx="999">
-                  <c:v>187.73</c:v>
-                </c:pt>
-                <c:pt idx="1000">
-                  <c:v>187.74</c:v>
-                </c:pt>
-                <c:pt idx="1001">
-                  <c:v>187.91</c:v>
-                </c:pt>
-                <c:pt idx="1002">
-                  <c:v>187.85</c:v>
-                </c:pt>
-                <c:pt idx="1003">
-                  <c:v>187.86</c:v>
-                </c:pt>
-                <c:pt idx="1004">
-                  <c:v>187.93</c:v>
-                </c:pt>
-                <c:pt idx="1005">
-                  <c:v>187.98</c:v>
-                </c:pt>
-                <c:pt idx="1006">
-                  <c:v>187.94</c:v>
-                </c:pt>
-                <c:pt idx="1007">
-                  <c:v>187.96</c:v>
-                </c:pt>
-                <c:pt idx="1008">
-                  <c:v>187.87</c:v>
-                </c:pt>
-                <c:pt idx="1009">
-                  <c:v>187.94</c:v>
-                </c:pt>
-                <c:pt idx="1010">
-                  <c:v>187.89</c:v>
-                </c:pt>
-                <c:pt idx="1011">
-                  <c:v>187.99</c:v>
-                </c:pt>
-                <c:pt idx="1012">
-                  <c:v>187.99</c:v>
-                </c:pt>
-                <c:pt idx="1013">
-                  <c:v>188.1</c:v>
-                </c:pt>
-                <c:pt idx="1014">
-                  <c:v>188.11</c:v>
-                </c:pt>
-                <c:pt idx="1015">
-                  <c:v>188.11</c:v>
-                </c:pt>
                 <c:pt idx="1016">
-                  <c:v>188.12</c:v>
+                  <c:v>181.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24848,7 +24858,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F1B4-45D3-A84C-26DCD2286318}"/>
+              <c16:uniqueId val="{00000000-F1B4-45D3-A84C-26DCD2286318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -31801,15 +31811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32136,8 +32146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DDC97A-12E3-4E0A-A88C-99BC60B9FFF8}">
   <dimension ref="A1:F1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
